--- a/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Юлия Россинская.xlsx
+++ b/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Юлия Россинская.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Сотрудник: Юлия Россинская</x:t>
+    <x:t>Сотрудник Юлия Россинская: 935,20 руб.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Сер.№</x:t>
@@ -76,10 +76,10 @@
     <x:t>Упаковка</x:t>
   </x:si>
   <x:si>
-    <x:t>5KMWOS5S</x:t>
+    <x:t>4KMWSM5S</x:t>
   </x:si>
   <x:si>
-    <x:t>IO-AZS100 | 110</x:t>
+    <x:t>IO-STREET150</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -88,13 +88,28 @@
     <x:t>Сергей Шипунов</x:t>
   </x:si>
   <x:si>
-    <x:t>Юрий Казачков</x:t>
+    <x:t>Самвел Галстян</x:t>
   </x:si>
   <x:si>
     <x:t>Юлия Россинская</x:t>
   </x:si>
   <x:si>
     <x:t>Михаил Ткаченко</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5KMWOS5S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IO-AZS100 | 110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Юрий Казачков</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5KMWOSD120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IO-STREET100 | 110 | 120</x:t>
   </x:si>
   <x:si>
     <x:t>5KKGPOS5S</x:t>
@@ -113,6 +128,15 @@
   </x:si>
   <x:si>
     <x:t>5KPHSM5S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IO-PROM110 | 120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5KKGPOS5SH1135*55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IO-STREET200/2 | 220/2 | 300/2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -504,7 +528,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:S52"/>
+  <x:dimension ref="A1:S70"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -579,7 +603,7 @@
     </x:row>
     <x:row r="3" spans="1:19">
       <x:c r="A3" s="0">
-        <x:v>8333</x:v>
+        <x:v>7555</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>20</x:v>
@@ -588,49 +612,49 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D3" s="0">
-        <x:v>12517</x:v>
+        <x:v>12530</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="3">
-        <x:v>45261.5199189815</x:v>
+        <x:v>45247.5153125</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H3" s="3">
-        <x:v>45261.5202893519</x:v>
+        <x:v>45247.5173032407</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="3">
-        <x:v>45261.5204050926</x:v>
+        <x:v>45247.5174421296</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L3" s="3">
-        <x:v>45419.404849537</x:v>
+        <x:v>45420.5071412037</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="N3" s="3">
-        <x:v>45419.4163425926</x:v>
+        <x:v>45420.5146759259</x:v>
       </x:c>
       <x:c r="O3" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P3" s="3">
-        <x:v>45419.4265162037</x:v>
+        <x:v>45420.5340740741</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="R3" s="3">
-        <x:v>45422.4099768518</x:v>
+        <x:v>45426.4235185185</x:v>
       </x:c>
       <x:c r="S3" s="0" t="s">
         <x:v>26</x:v>
@@ -638,13 +662,13 @@
     </x:row>
     <x:row r="4" spans="1:19">
       <x:c r="A4" s="0">
-        <x:v>8334</x:v>
+        <x:v>8333</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D4" s="0">
         <x:v>12517</x:v>
@@ -659,37 +683,37 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="3">
-        <x:v>45261.5202777778</x:v>
+        <x:v>45261.5202893519</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J4" s="3">
-        <x:v>45261.5203935185</x:v>
+        <x:v>45261.5204050926</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L4" s="3">
-        <x:v>45419.3973148148</x:v>
+        <x:v>45419.404849537</x:v>
       </x:c>
       <x:c r="M4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N4" s="3">
-        <x:v>45419.4086921296</x:v>
+        <x:v>45419.4163425926</x:v>
       </x:c>
       <x:c r="O4" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P4" s="3">
-        <x:v>45419.441712963</x:v>
+        <x:v>45419.4265162037</x:v>
       </x:c>
       <x:c r="Q4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R4" s="3">
-        <x:v>45422.41</x:v>
+        <x:v>45422.4099768518</x:v>
       </x:c>
       <x:c r="S4" s="0" t="s">
         <x:v>26</x:v>
@@ -697,13 +721,13 @@
     </x:row>
     <x:row r="5" spans="1:19">
       <x:c r="A5" s="0">
-        <x:v>8335</x:v>
+        <x:v>8334</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D5" s="0">
         <x:v>12517</x:v>
@@ -718,37 +742,37 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="3">
-        <x:v>45261.5202662037</x:v>
+        <x:v>45261.5202777778</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J5" s="3">
-        <x:v>45261.5203819444</x:v>
+        <x:v>45261.5203935185</x:v>
       </x:c>
       <x:c r="K5" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L5" s="3">
-        <x:v>45419.4037847222</x:v>
+        <x:v>45419.3973148148</x:v>
       </x:c>
       <x:c r="M5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N5" s="3">
-        <x:v>45419.4178703704</x:v>
+        <x:v>45419.4086921296</x:v>
       </x:c>
       <x:c r="O5" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P5" s="3">
-        <x:v>45419.4187962963</x:v>
+        <x:v>45419.441712963</x:v>
       </x:c>
       <x:c r="Q5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R5" s="3">
-        <x:v>45420.3632638889</x:v>
+        <x:v>45422.41</x:v>
       </x:c>
       <x:c r="S5" s="0" t="s">
         <x:v>26</x:v>
@@ -756,13 +780,13 @@
     </x:row>
     <x:row r="6" spans="1:19">
       <x:c r="A6" s="0">
-        <x:v>10368</x:v>
+        <x:v>8335</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D6" s="0">
         <x:v>12517</x:v>
@@ -771,43 +795,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F6" s="3">
-        <x:v>45327.3854398148</x:v>
+        <x:v>45261.5199189815</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H6" s="3">
-        <x:v>45327.3859722222</x:v>
+        <x:v>45261.5202662037</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J6" s="3">
-        <x:v>45327.3861226852</x:v>
+        <x:v>45261.5203819444</x:v>
       </x:c>
       <x:c r="K6" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L6" s="3">
-        <x:v>45419.3972800926</x:v>
+        <x:v>45419.4037847222</x:v>
       </x:c>
       <x:c r="M6" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N6" s="3">
-        <x:v>45419.4102314815</x:v>
+        <x:v>45419.4178703704</x:v>
       </x:c>
       <x:c r="O6" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P6" s="3">
-        <x:v>45419.4520486111</x:v>
+        <x:v>45419.4187962963</x:v>
       </x:c>
       <x:c r="Q6" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R6" s="3">
-        <x:v>45419.6000231481</x:v>
+        <x:v>45420.3632638889</x:v>
       </x:c>
       <x:c r="S6" s="0" t="s">
         <x:v>26</x:v>
@@ -815,58 +839,58 @@
     </x:row>
     <x:row r="7" spans="1:19">
       <x:c r="A7" s="0">
-        <x:v>12819</x:v>
+        <x:v>8336</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0">
-        <x:v>12514</x:v>
+        <x:v>12530</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F7" s="3">
-        <x:v>45405.4903009259</x:v>
+        <x:v>45261.5199189815</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H7" s="3">
-        <x:v>45405.4930555556</x:v>
+        <x:v>45261.5202546296</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J7" s="3">
-        <x:v>45405.4932407407</x:v>
+        <x:v>45261.5203703704</x:v>
       </x:c>
       <x:c r="K7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L7" s="3">
-        <x:v>45415.5807175926</x:v>
+        <x:v>45420.5074652778</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="N7" s="3">
-        <x:v>45415.5891435185</x:v>
+        <x:v>45420.5113541667</x:v>
       </x:c>
       <x:c r="O7" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P7" s="3">
-        <x:v>45415.622337963</x:v>
+        <x:v>45420.5340393518</x:v>
       </x:c>
       <x:c r="Q7" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="R7" s="3">
-        <x:v>45418.6048842593</x:v>
+        <x:v>45426.4234837963</x:v>
       </x:c>
       <x:c r="S7" s="0" t="s">
         <x:v>26</x:v>
@@ -874,58 +898,58 @@
     </x:row>
     <x:row r="8" spans="1:19">
       <x:c r="A8" s="0">
-        <x:v>12820</x:v>
+        <x:v>8340</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D8" s="0">
-        <x:v>12514</x:v>
+        <x:v>12530</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F8" s="3">
-        <x:v>45405.4903009259</x:v>
+        <x:v>45261.5199189815</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H8" s="3">
-        <x:v>45405.4930671296</x:v>
+        <x:v>45261.5202199074</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J8" s="3">
-        <x:v>45405.4932407407</x:v>
+        <x:v>45261.5203472222</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L8" s="3">
-        <x:v>45415.5853703704</x:v>
+        <x:v>45420.5073148148</x:v>
       </x:c>
       <x:c r="M8" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="N8" s="3">
-        <x:v>45415.5940509259</x:v>
+        <x:v>45420.5178472222</x:v>
       </x:c>
       <x:c r="O8" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P8" s="3">
-        <x:v>45415.6103935185</x:v>
+        <x:v>45420.5340509259</x:v>
       </x:c>
       <x:c r="Q8" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="R8" s="3">
-        <x:v>45418.6300115741</x:v>
+        <x:v>45426.4235069444</x:v>
       </x:c>
       <x:c r="S8" s="0" t="s">
         <x:v>26</x:v>
@@ -933,7 +957,7 @@
     </x:row>
     <x:row r="9" spans="1:19">
       <x:c r="A9" s="0">
-        <x:v>12821</x:v>
+        <x:v>10368</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>27</x:v>
@@ -942,49 +966,49 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D9" s="0">
-        <x:v>12514</x:v>
+        <x:v>12517</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F9" s="3">
-        <x:v>45405.4903356481</x:v>
+        <x:v>45327.3854398148</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H9" s="3">
-        <x:v>45405.4930671296</x:v>
+        <x:v>45327.3859722222</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J9" s="3">
-        <x:v>45405.4932291667</x:v>
+        <x:v>45327.3861226852</x:v>
       </x:c>
       <x:c r="K9" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L9" s="3">
-        <x:v>45415.5807407407</x:v>
+        <x:v>45419.3972800926</x:v>
       </x:c>
       <x:c r="M9" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N9" s="3">
-        <x:v>45415.5894560185</x:v>
+        <x:v>45419.4102314815</x:v>
       </x:c>
       <x:c r="O9" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P9" s="3">
-        <x:v>45415.6211921296</x:v>
+        <x:v>45419.4520486111</x:v>
       </x:c>
       <x:c r="Q9" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R9" s="3">
-        <x:v>45418.6048958333</x:v>
+        <x:v>45419.6000231481</x:v>
       </x:c>
       <x:c r="S9" s="0" t="s">
         <x:v>26</x:v>
@@ -992,7 +1016,7 @@
     </x:row>
     <x:row r="10" spans="1:19">
       <x:c r="A10" s="0">
-        <x:v>12822</x:v>
+        <x:v>10369</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>27</x:v>
@@ -1001,49 +1025,49 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D10" s="0">
-        <x:v>12514</x:v>
+        <x:v>12517</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F10" s="3">
-        <x:v>45405.4903356481</x:v>
+        <x:v>45327.3854398148</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H10" s="3">
-        <x:v>45405.4930787037</x:v>
+        <x:v>45327.3859606481</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J10" s="3">
-        <x:v>45405.4932175926</x:v>
+        <x:v>45327.3861111111</x:v>
       </x:c>
       <x:c r="K10" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L10" s="3">
-        <x:v>45415.5853935185</x:v>
+        <x:v>45415.6269444444</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N10" s="3">
-        <x:v>45415.5938888889</x:v>
+        <x:v>45415.6272569444</x:v>
       </x:c>
       <x:c r="O10" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P10" s="3">
-        <x:v>45415.6109027778</x:v>
+        <x:v>45415.6273958333</x:v>
       </x:c>
       <x:c r="Q10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R10" s="3">
-        <x:v>45418.6049074074</x:v>
+        <x:v>45420.3632407407</x:v>
       </x:c>
       <x:c r="S10" s="0" t="s">
         <x:v>26</x:v>
@@ -1051,58 +1075,58 @@
     </x:row>
     <x:row r="11" spans="1:19">
       <x:c r="A11" s="0">
-        <x:v>12823</x:v>
+        <x:v>12802</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D11" s="0">
-        <x:v>12514</x:v>
+        <x:v>12526</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F11" s="3">
-        <x:v>45405.4903356481</x:v>
+        <x:v>45404.6460763889</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H11" s="3">
-        <x:v>45405.4930787037</x:v>
+        <x:v>45404.6465856481</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J11" s="3">
-        <x:v>45405.4932175926</x:v>
+        <x:v>45404.646712963</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L11" s="3">
-        <x:v>45415.5853009259</x:v>
+        <x:v>45420.4179282407</x:v>
       </x:c>
       <x:c r="M11" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="N11" s="3">
-        <x:v>45415.5941898148</x:v>
+        <x:v>45420.5263425926</x:v>
       </x:c>
       <x:c r="O11" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P11" s="3">
-        <x:v>45415.6211342593</x:v>
+        <x:v>45420.5579976852</x:v>
       </x:c>
       <x:c r="Q11" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="R11" s="3">
-        <x:v>45418.6048726852</x:v>
+        <x:v>45425.4987384259</x:v>
       </x:c>
       <x:c r="S11" s="0" t="s">
         <x:v>26</x:v>
@@ -1110,58 +1134,58 @@
     </x:row>
     <x:row r="12" spans="1:19">
       <x:c r="A12" s="0">
-        <x:v>12824</x:v>
+        <x:v>12807</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D12" s="0">
-        <x:v>12514</x:v>
+        <x:v>12526</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F12" s="3">
-        <x:v>45405.4903356481</x:v>
+        <x:v>45405.3940740741</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="3">
-        <x:v>45405.4930902778</x:v>
+        <x:v>45405.4049537037</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J12" s="3">
-        <x:v>45405.4932060185</x:v>
+        <x:v>45420.4178009259</x:v>
       </x:c>
       <x:c r="K12" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="L12" s="3">
-        <x:v>45415.580775463</x:v>
+        <x:v>45420.4180324074</x:v>
       </x:c>
       <x:c r="M12" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="N12" s="3">
-        <x:v>45415.5896180556</x:v>
+        <x:v>45420.5362037037</x:v>
       </x:c>
       <x:c r="O12" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P12" s="3">
-        <x:v>45415.6168634259</x:v>
+        <x:v>45420.5579861111</x:v>
       </x:c>
       <x:c r="Q12" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="R12" s="3">
-        <x:v>45418.6048958333</x:v>
+        <x:v>45425.4987731481</x:v>
       </x:c>
       <x:c r="S12" s="0" t="s">
         <x:v>26</x:v>
@@ -1169,58 +1193,58 @@
     </x:row>
     <x:row r="13" spans="1:19">
       <x:c r="A13" s="0">
-        <x:v>12825</x:v>
+        <x:v>12808</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D13" s="0">
-        <x:v>12514</x:v>
+        <x:v>12526</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F13" s="3">
-        <x:v>45405.4903356481</x:v>
+        <x:v>45405.3940740741</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H13" s="3">
-        <x:v>45405.4930902778</x:v>
+        <x:v>45405.4047569444</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J13" s="3">
-        <x:v>45405.4931944444</x:v>
+        <x:v>45420.4178356481</x:v>
       </x:c>
       <x:c r="K13" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="L13" s="3">
-        <x:v>45415.5853356481</x:v>
+        <x:v>45420.4180092593</x:v>
       </x:c>
       <x:c r="M13" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="N13" s="3">
-        <x:v>45415.5937615741</x:v>
+        <x:v>45420.5346759259</x:v>
       </x:c>
       <x:c r="O13" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P13" s="3">
-        <x:v>45415.6159837963</x:v>
+        <x:v>45420.557962963</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="R13" s="3">
-        <x:v>45418.6049884259</x:v>
+        <x:v>45425.4987615741</x:v>
       </x:c>
       <x:c r="S13" s="0" t="s">
         <x:v>26</x:v>
@@ -1228,58 +1252,58 @@
     </x:row>
     <x:row r="14" spans="1:19">
       <x:c r="A14" s="0">
-        <x:v>12826</x:v>
+        <x:v>12809</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D14" s="0">
-        <x:v>12514</x:v>
+        <x:v>12526</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F14" s="3">
-        <x:v>45405.4903356481</x:v>
+        <x:v>45405.3940740741</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H14" s="3">
-        <x:v>45405.4931018519</x:v>
+        <x:v>45405.4051157407</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J14" s="3">
-        <x:v>45405.4931944444</x:v>
+        <x:v>45420.4176736111</x:v>
       </x:c>
       <x:c r="K14" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="L14" s="3">
-        <x:v>45415.5899884259</x:v>
+        <x:v>45420.417962963</x:v>
       </x:c>
       <x:c r="M14" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="N14" s="3">
-        <x:v>45415.5979166667</x:v>
+        <x:v>45420.5277777778</x:v>
       </x:c>
       <x:c r="O14" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P14" s="3">
-        <x:v>45415.6168055556</x:v>
+        <x:v>45420.5580208333</x:v>
       </x:c>
       <x:c r="Q14" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="R14" s="3">
-        <x:v>45418.605</x:v>
+        <x:v>45425.4987268519</x:v>
       </x:c>
       <x:c r="S14" s="0" t="s">
         <x:v>26</x:v>
@@ -1287,13 +1311,13 @@
     </x:row>
     <x:row r="15" spans="1:19">
       <x:c r="A15" s="0">
-        <x:v>12848</x:v>
+        <x:v>12819</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D15" s="0">
         <x:v>12514</x:v>
@@ -1302,43 +1326,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F15" s="3">
-        <x:v>45408.4940740741</x:v>
+        <x:v>45405.4903009259</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H15" s="3">
-        <x:v>45408.5913425926</x:v>
+        <x:v>45405.4930555556</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J15" s="3">
-        <x:v>45408.5918287037</x:v>
+        <x:v>45405.4932407407</x:v>
       </x:c>
       <x:c r="K15" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L15" s="3">
-        <x:v>45415.5900347222</x:v>
+        <x:v>45415.5807175926</x:v>
       </x:c>
       <x:c r="M15" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N15" s="3">
-        <x:v>45415.5980902778</x:v>
+        <x:v>45415.5891435185</x:v>
       </x:c>
       <x:c r="O15" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P15" s="3">
-        <x:v>45415.6159143519</x:v>
+        <x:v>45415.622337963</x:v>
       </x:c>
       <x:c r="Q15" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R15" s="3">
-        <x:v>45418.6050231481</x:v>
+        <x:v>45418.6048842593</x:v>
       </x:c>
       <x:c r="S15" s="0" t="s">
         <x:v>26</x:v>
@@ -1346,13 +1370,13 @@
     </x:row>
     <x:row r="16" spans="1:19">
       <x:c r="A16" s="0">
-        <x:v>12849</x:v>
+        <x:v>12820</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D16" s="0">
         <x:v>12514</x:v>
@@ -1361,43 +1385,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F16" s="3">
-        <x:v>45408.4940740741</x:v>
+        <x:v>45405.4903009259</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H16" s="3">
-        <x:v>45408.5913310185</x:v>
+        <x:v>45405.4930671296</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J16" s="3">
-        <x:v>45408.5918287037</x:v>
+        <x:v>45405.4932407407</x:v>
       </x:c>
       <x:c r="K16" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L16" s="3">
-        <x:v>45415.5806828704</x:v>
+        <x:v>45415.5853703704</x:v>
       </x:c>
       <x:c r="M16" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N16" s="3">
-        <x:v>45415.5892939815</x:v>
+        <x:v>45415.5940509259</x:v>
       </x:c>
       <x:c r="O16" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P16" s="3">
-        <x:v>45415.6223842593</x:v>
+        <x:v>45415.6103935185</x:v>
       </x:c>
       <x:c r="Q16" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R16" s="3">
-        <x:v>45418.6300462963</x:v>
+        <x:v>45418.6300115741</x:v>
       </x:c>
       <x:c r="S16" s="0" t="s">
         <x:v>26</x:v>
@@ -1405,13 +1429,13 @@
     </x:row>
     <x:row r="17" spans="1:19">
       <x:c r="A17" s="0">
-        <x:v>12850</x:v>
+        <x:v>12821</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D17" s="0">
         <x:v>12514</x:v>
@@ -1420,43 +1444,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F17" s="3">
-        <x:v>45408.4940740741</x:v>
+        <x:v>45405.4903356481</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H17" s="3">
-        <x:v>45408.5913194444</x:v>
+        <x:v>45405.4930671296</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J17" s="3">
-        <x:v>45408.5918171296</x:v>
+        <x:v>45405.4932291667</x:v>
       </x:c>
       <x:c r="K17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L17" s="3">
-        <x:v>45415.5900694444</x:v>
+        <x:v>45415.5807407407</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N17" s="3">
-        <x:v>45415.5983101852</x:v>
+        <x:v>45415.5894560185</x:v>
       </x:c>
       <x:c r="O17" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P17" s="3">
-        <x:v>45415.6158217593</x:v>
+        <x:v>45415.6211921296</x:v>
       </x:c>
       <x:c r="Q17" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R17" s="3">
-        <x:v>45418.6050115741</x:v>
+        <x:v>45418.6048958333</x:v>
       </x:c>
       <x:c r="S17" s="0" t="s">
         <x:v>26</x:v>
@@ -1464,13 +1488,13 @@
     </x:row>
     <x:row r="18" spans="1:19">
       <x:c r="A18" s="0">
-        <x:v>12851</x:v>
+        <x:v>12822</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D18" s="0">
         <x:v>12514</x:v>
@@ -1479,43 +1503,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F18" s="3">
-        <x:v>45408.4940740741</x:v>
+        <x:v>45405.4903356481</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H18" s="3">
-        <x:v>45408.5913194444</x:v>
+        <x:v>45405.4930787037</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J18" s="3">
-        <x:v>45408.5918055556</x:v>
+        <x:v>45405.4932175926</x:v>
       </x:c>
       <x:c r="K18" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L18" s="3">
-        <x:v>45415.5901041667</x:v>
+        <x:v>45415.5853935185</x:v>
       </x:c>
       <x:c r="M18" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N18" s="3">
-        <x:v>45415.5977777778</x:v>
+        <x:v>45415.5938888889</x:v>
       </x:c>
       <x:c r="O18" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P18" s="3">
-        <x:v>45415.6210648148</x:v>
+        <x:v>45415.6109027778</x:v>
       </x:c>
       <x:c r="Q18" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R18" s="3">
-        <x:v>45418.6300231482</x:v>
+        <x:v>45418.6049074074</x:v>
       </x:c>
       <x:c r="S18" s="0" t="s">
         <x:v>26</x:v>
@@ -1523,58 +1547,58 @@
     </x:row>
     <x:row r="19" spans="1:19">
       <x:c r="A19" s="0">
-        <x:v>12929</x:v>
+        <x:v>12823</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D19" s="0">
-        <x:v>12481</x:v>
+        <x:v>12514</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F19" s="3">
-        <x:v>45414.4261111111</x:v>
+        <x:v>45405.4903356481</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H19" s="3">
-        <x:v>45414.4275578704</x:v>
+        <x:v>45405.4930787037</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J19" s="3">
-        <x:v>45414.4278009259</x:v>
+        <x:v>45405.4932175926</x:v>
       </x:c>
       <x:c r="K19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L19" s="3">
-        <x:v>45414.4293171296</x:v>
+        <x:v>45415.5853009259</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N19" s="3">
-        <x:v>45414.4294212963</x:v>
+        <x:v>45415.5941898148</x:v>
       </x:c>
       <x:c r="O19" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P19" s="3">
-        <x:v>45414.4299768519</x:v>
+        <x:v>45415.6211342593</x:v>
       </x:c>
       <x:c r="Q19" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R19" s="3">
-        <x:v>45419.4412731481</x:v>
+        <x:v>45418.6048726852</x:v>
       </x:c>
       <x:c r="S19" s="0" t="s">
         <x:v>26</x:v>
@@ -1582,58 +1606,58 @@
     </x:row>
     <x:row r="20" spans="1:19">
       <x:c r="A20" s="0">
-        <x:v>12930</x:v>
+        <x:v>12824</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D20" s="0">
-        <x:v>12481</x:v>
+        <x:v>12514</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F20" s="3">
-        <x:v>45414.4261111111</x:v>
+        <x:v>45405.4903356481</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H20" s="3">
-        <x:v>45414.4275810185</x:v>
+        <x:v>45405.4930902778</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J20" s="3">
-        <x:v>45414.4278125</x:v>
+        <x:v>45405.4932060185</x:v>
       </x:c>
       <x:c r="K20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L20" s="3">
-        <x:v>45414.4289467593</x:v>
+        <x:v>45415.580775463</x:v>
       </x:c>
       <x:c r="M20" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N20" s="3">
-        <x:v>45414.4295949074</x:v>
+        <x:v>45415.5896180556</x:v>
       </x:c>
       <x:c r="O20" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P20" s="3">
-        <x:v>45414.430150463</x:v>
+        <x:v>45415.6168634259</x:v>
       </x:c>
       <x:c r="Q20" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R20" s="3">
-        <x:v>45419.4419560185</x:v>
+        <x:v>45418.6048958333</x:v>
       </x:c>
       <x:c r="S20" s="0" t="s">
         <x:v>26</x:v>
@@ -1641,58 +1665,58 @@
     </x:row>
     <x:row r="21" spans="1:19">
       <x:c r="A21" s="0">
-        <x:v>12931</x:v>
+        <x:v>12825</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D21" s="0">
-        <x:v>12481</x:v>
+        <x:v>12514</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F21" s="3">
-        <x:v>45414.4261111111</x:v>
+        <x:v>45405.4903356481</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H21" s="3">
-        <x:v>45414.4275810185</x:v>
+        <x:v>45405.4930902778</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J21" s="3">
-        <x:v>45414.4278240741</x:v>
+        <x:v>45405.4931944444</x:v>
       </x:c>
       <x:c r="K21" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L21" s="3">
-        <x:v>45414.429212963</x:v>
+        <x:v>45415.5853356481</x:v>
       </x:c>
       <x:c r="M21" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N21" s="3">
-        <x:v>45414.4294791667</x:v>
+        <x:v>45415.5937615741</x:v>
       </x:c>
       <x:c r="O21" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P21" s="3">
-        <x:v>45414.4298958333</x:v>
+        <x:v>45415.6159837963</x:v>
       </x:c>
       <x:c r="Q21" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R21" s="3">
-        <x:v>45419.4498842593</x:v>
+        <x:v>45418.6049884259</x:v>
       </x:c>
       <x:c r="S21" s="0" t="s">
         <x:v>26</x:v>
@@ -1700,58 +1724,58 @@
     </x:row>
     <x:row r="22" spans="1:19">
       <x:c r="A22" s="0">
-        <x:v>12933</x:v>
+        <x:v>12826</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D22" s="0">
-        <x:v>12481</x:v>
+        <x:v>12514</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F22" s="3">
-        <x:v>45414.4261111111</x:v>
+        <x:v>45405.4903356481</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H22" s="3">
-        <x:v>45414.4275925926</x:v>
+        <x:v>45405.4931018519</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J22" s="3">
-        <x:v>45414.4278472222</x:v>
+        <x:v>45405.4931944444</x:v>
       </x:c>
       <x:c r="K22" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L22" s="3">
-        <x:v>45414.4290740741</x:v>
+        <x:v>45415.5899884259</x:v>
       </x:c>
       <x:c r="M22" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N22" s="3">
-        <x:v>45414.4295486111</x:v>
+        <x:v>45415.5979166667</x:v>
       </x:c>
       <x:c r="O22" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P22" s="3">
-        <x:v>45414.4300115741</x:v>
+        <x:v>45415.6168055556</x:v>
       </x:c>
       <x:c r="Q22" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R22" s="3">
-        <x:v>45419.4451041667</x:v>
+        <x:v>45418.605</x:v>
       </x:c>
       <x:c r="S22" s="0" t="s">
         <x:v>26</x:v>
@@ -1759,58 +1783,58 @@
     </x:row>
     <x:row r="23" spans="1:19">
       <x:c r="A23" s="0">
-        <x:v>12961</x:v>
+        <x:v>12848</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D23" s="0">
-        <x:v>12534</x:v>
+        <x:v>12514</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F23" s="3">
-        <x:v>45418.4972453704</x:v>
+        <x:v>45408.4940740741</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H23" s="3">
-        <x:v>45418.4999768519</x:v>
+        <x:v>45408.5913425926</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J23" s="3">
-        <x:v>45418.500162037</x:v>
+        <x:v>45408.5918287037</x:v>
       </x:c>
       <x:c r="K23" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L23" s="3">
-        <x:v>45425.4456944444</x:v>
+        <x:v>45415.5900347222</x:v>
       </x:c>
       <x:c r="M23" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N23" s="3">
-        <x:v>45425.4523611111</x:v>
+        <x:v>45415.5980902778</x:v>
       </x:c>
       <x:c r="O23" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P23" s="3">
-        <x:v>45425.4957175926</x:v>
+        <x:v>45415.6159143519</x:v>
       </x:c>
       <x:c r="Q23" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R23" s="3">
-        <x:v>45425.6497222222</x:v>
+        <x:v>45418.6050231481</x:v>
       </x:c>
       <x:c r="S23" s="0" t="s">
         <x:v>26</x:v>
@@ -1818,58 +1842,58 @@
     </x:row>
     <x:row r="24" spans="1:19">
       <x:c r="A24" s="0">
-        <x:v>12962</x:v>
+        <x:v>12849</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D24" s="0">
-        <x:v>12534</x:v>
+        <x:v>12514</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F24" s="3">
-        <x:v>45418.4972453704</x:v>
+        <x:v>45408.4940740741</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H24" s="3">
-        <x:v>45418.4999652778</x:v>
+        <x:v>45408.5913310185</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J24" s="3">
-        <x:v>45418.5001736111</x:v>
+        <x:v>45408.5918287037</x:v>
       </x:c>
       <x:c r="K24" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L24" s="3">
-        <x:v>45425.4457291667</x:v>
+        <x:v>45415.5806828704</x:v>
       </x:c>
       <x:c r="M24" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N24" s="3">
-        <x:v>45425.4522106481</x:v>
+        <x:v>45415.5892939815</x:v>
       </x:c>
       <x:c r="O24" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P24" s="3">
-        <x:v>45425.4958101852</x:v>
+        <x:v>45415.6223842593</x:v>
       </x:c>
       <x:c r="Q24" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R24" s="3">
-        <x:v>45425.6497337963</x:v>
+        <x:v>45418.6300462963</x:v>
       </x:c>
       <x:c r="S24" s="0" t="s">
         <x:v>26</x:v>
@@ -1877,58 +1901,58 @@
     </x:row>
     <x:row r="25" spans="1:19">
       <x:c r="A25" s="0">
-        <x:v>12963</x:v>
+        <x:v>12850</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D25" s="0">
-        <x:v>12534</x:v>
+        <x:v>12514</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F25" s="3">
-        <x:v>45418.4972453704</x:v>
+        <x:v>45408.4940740741</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H25" s="3">
-        <x:v>45418.4999421296</x:v>
+        <x:v>45408.5913194444</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J25" s="3">
-        <x:v>45418.5001851852</x:v>
+        <x:v>45408.5918171296</x:v>
       </x:c>
       <x:c r="K25" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L25" s="3">
-        <x:v>45425.4457638889</x:v>
+        <x:v>45415.5900694444</x:v>
       </x:c>
       <x:c r="M25" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N25" s="3">
-        <x:v>45425.4525231481</x:v>
+        <x:v>45415.5983101852</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P25" s="3">
-        <x:v>45425.4956597222</x:v>
+        <x:v>45415.6158217593</x:v>
       </x:c>
       <x:c r="Q25" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R25" s="3">
-        <x:v>45425.6496064815</x:v>
+        <x:v>45418.6050115741</x:v>
       </x:c>
       <x:c r="S25" s="0" t="s">
         <x:v>26</x:v>
@@ -1936,58 +1960,58 @@
     </x:row>
     <x:row r="26" spans="1:19">
       <x:c r="A26" s="0">
-        <x:v>12964</x:v>
+        <x:v>12851</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D26" s="0">
-        <x:v>12534</x:v>
+        <x:v>12514</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F26" s="3">
-        <x:v>45418.4972453704</x:v>
+        <x:v>45408.4940740741</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H26" s="3">
-        <x:v>45418.4999305556</x:v>
+        <x:v>45408.5913194444</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J26" s="3">
-        <x:v>45418.5001967593</x:v>
+        <x:v>45408.5918055556</x:v>
       </x:c>
       <x:c r="K26" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L26" s="3">
-        <x:v>45425.4413310185</x:v>
+        <x:v>45415.5901041667</x:v>
       </x:c>
       <x:c r="M26" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N26" s="3">
-        <x:v>45425.4496412037</x:v>
+        <x:v>45415.5977777778</x:v>
       </x:c>
       <x:c r="O26" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P26" s="3">
-        <x:v>45425.4969791667</x:v>
+        <x:v>45415.6210648148</x:v>
       </x:c>
       <x:c r="Q26" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R26" s="3">
-        <x:v>45425.6496990741</x:v>
+        <x:v>45418.6300231482</x:v>
       </x:c>
       <x:c r="S26" s="0" t="s">
         <x:v>26</x:v>
@@ -1995,58 +2019,58 @@
     </x:row>
     <x:row r="27" spans="1:19">
       <x:c r="A27" s="0">
-        <x:v>12965</x:v>
+        <x:v>12929</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D27" s="0">
-        <x:v>12534</x:v>
+        <x:v>12481</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F27" s="3">
-        <x:v>45418.4972453704</x:v>
+        <x:v>45414.4261111111</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H27" s="3">
-        <x:v>45418.4999189815</x:v>
+        <x:v>45414.4275578704</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J27" s="3">
-        <x:v>45418.5002083333</x:v>
+        <x:v>45414.4278009259</x:v>
       </x:c>
       <x:c r="K27" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L27" s="3">
-        <x:v>45425.4413657407</x:v>
+        <x:v>45414.4293171296</x:v>
       </x:c>
       <x:c r="M27" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N27" s="3">
-        <x:v>45425.4497916667</x:v>
+        <x:v>45414.4294212963</x:v>
       </x:c>
       <x:c r="O27" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P27" s="3">
-        <x:v>45425.4969212963</x:v>
+        <x:v>45414.4299768519</x:v>
       </x:c>
       <x:c r="Q27" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R27" s="3">
-        <x:v>45425.6496875</x:v>
+        <x:v>45419.4412731481</x:v>
       </x:c>
       <x:c r="S27" s="0" t="s">
         <x:v>26</x:v>
@@ -2054,58 +2078,58 @@
     </x:row>
     <x:row r="28" spans="1:19">
       <x:c r="A28" s="0">
-        <x:v>12966</x:v>
+        <x:v>12930</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D28" s="0">
-        <x:v>12534</x:v>
+        <x:v>12481</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F28" s="3">
-        <x:v>45418.4972916667</x:v>
+        <x:v>45414.4261111111</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H28" s="3">
-        <x:v>45418.4999074074</x:v>
+        <x:v>45414.4275810185</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J28" s="3">
-        <x:v>45418.5002083333</x:v>
+        <x:v>45414.4278125</x:v>
       </x:c>
       <x:c r="K28" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L28" s="3">
-        <x:v>45425.4412962963</x:v>
+        <x:v>45414.4289467593</x:v>
       </x:c>
       <x:c r="M28" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N28" s="3">
-        <x:v>45425.4495023148</x:v>
+        <x:v>45414.4295949074</x:v>
       </x:c>
       <x:c r="O28" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P28" s="3">
-        <x:v>45425.5088541667</x:v>
+        <x:v>45414.430150463</x:v>
       </x:c>
       <x:c r="Q28" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R28" s="3">
-        <x:v>45425.6497916667</x:v>
+        <x:v>45419.4419560185</x:v>
       </x:c>
       <x:c r="S28" s="0" t="s">
         <x:v>26</x:v>
@@ -2113,58 +2137,58 @@
     </x:row>
     <x:row r="29" spans="1:19">
       <x:c r="A29" s="0">
-        <x:v>12968</x:v>
+        <x:v>12931</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D29" s="0">
-        <x:v>12534</x:v>
+        <x:v>12481</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F29" s="3">
-        <x:v>45418.4972916667</x:v>
+        <x:v>45414.4261111111</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H29" s="3">
-        <x:v>45418.4998958333</x:v>
+        <x:v>45414.4275810185</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J29" s="3">
-        <x:v>45418.5002314815</x:v>
+        <x:v>45414.4278240741</x:v>
       </x:c>
       <x:c r="K29" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L29" s="3">
-        <x:v>45425.4322106481</x:v>
+        <x:v>45414.429212963</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N29" s="3">
-        <x:v>45425.4412615741</x:v>
+        <x:v>45414.4294791667</x:v>
       </x:c>
       <x:c r="O29" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P29" s="3">
-        <x:v>45425.4980439815</x:v>
+        <x:v>45414.4298958333</x:v>
       </x:c>
       <x:c r="Q29" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R29" s="3">
-        <x:v>45425.6496180556</x:v>
+        <x:v>45419.4498842593</x:v>
       </x:c>
       <x:c r="S29" s="0" t="s">
         <x:v>26</x:v>
@@ -2172,58 +2196,58 @@
     </x:row>
     <x:row r="30" spans="1:19">
       <x:c r="A30" s="0">
-        <x:v>12969</x:v>
+        <x:v>12933</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D30" s="0">
-        <x:v>12534</x:v>
+        <x:v>12481</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F30" s="3">
-        <x:v>45418.4972916667</x:v>
+        <x:v>45414.4261111111</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H30" s="3">
-        <x:v>45418.4998842593</x:v>
+        <x:v>45414.4275925926</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J30" s="3">
-        <x:v>45418.5002430556</x:v>
+        <x:v>45414.4278472222</x:v>
       </x:c>
       <x:c r="K30" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L30" s="3">
-        <x:v>45425.4322337963</x:v>
+        <x:v>45414.4290740741</x:v>
       </x:c>
       <x:c r="M30" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N30" s="3">
-        <x:v>45425.4414236111</x:v>
+        <x:v>45414.4295486111</x:v>
       </x:c>
       <x:c r="O30" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P30" s="3">
-        <x:v>45425.4981134259</x:v>
+        <x:v>45414.4300115741</x:v>
       </x:c>
       <x:c r="Q30" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R30" s="3">
-        <x:v>45425.6496643519</x:v>
+        <x:v>45419.4451041667</x:v>
       </x:c>
       <x:c r="S30" s="0" t="s">
         <x:v>26</x:v>
@@ -2231,13 +2255,13 @@
     </x:row>
     <x:row r="31" spans="1:19">
       <x:c r="A31" s="0">
-        <x:v>12970</x:v>
+        <x:v>12961</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D31" s="0">
         <x:v>12534</x:v>
@@ -2246,43 +2270,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F31" s="3">
-        <x:v>45418.4972916667</x:v>
+        <x:v>45418.4972453704</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H31" s="3">
-        <x:v>45418.4998726852</x:v>
+        <x:v>45418.4999768519</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J31" s="3">
-        <x:v>45418.5002430556</x:v>
+        <x:v>45418.500162037</x:v>
       </x:c>
       <x:c r="K31" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L31" s="3">
-        <x:v>45425.4368055556</x:v>
+        <x:v>45425.4456944444</x:v>
       </x:c>
       <x:c r="M31" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N31" s="3">
-        <x:v>45425.4445833333</x:v>
+        <x:v>45425.4523611111</x:v>
       </x:c>
       <x:c r="O31" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P31" s="3">
-        <x:v>45425.5057523148</x:v>
+        <x:v>45425.4957175926</x:v>
       </x:c>
       <x:c r="Q31" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R31" s="3">
-        <x:v>45425.6497800926</x:v>
+        <x:v>45425.6497222222</x:v>
       </x:c>
       <x:c r="S31" s="0" t="s">
         <x:v>26</x:v>
@@ -2290,13 +2314,13 @@
     </x:row>
     <x:row r="32" spans="1:19">
       <x:c r="A32" s="0">
-        <x:v>12971</x:v>
+        <x:v>12962</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D32" s="0">
         <x:v>12534</x:v>
@@ -2305,43 +2329,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F32" s="3">
-        <x:v>45418.4972916667</x:v>
+        <x:v>45418.4972453704</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H32" s="3">
-        <x:v>45418.4998726852</x:v>
+        <x:v>45418.4999652778</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J32" s="3">
-        <x:v>45418.5002546296</x:v>
+        <x:v>45418.5001736111</x:v>
       </x:c>
       <x:c r="K32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L32" s="3">
-        <x:v>45425.4412615741</x:v>
+        <x:v>45425.4457291667</x:v>
       </x:c>
       <x:c r="M32" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N32" s="3">
-        <x:v>45425.4499537037</x:v>
+        <x:v>45425.4522106481</x:v>
       </x:c>
       <x:c r="O32" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P32" s="3">
-        <x:v>45425.496875</x:v>
+        <x:v>45425.4958101852</x:v>
       </x:c>
       <x:c r="Q32" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R32" s="3">
-        <x:v>45425.6496527778</x:v>
+        <x:v>45425.6497337963</x:v>
       </x:c>
       <x:c r="S32" s="0" t="s">
         <x:v>26</x:v>
@@ -2349,13 +2373,13 @@
     </x:row>
     <x:row r="33" spans="1:19">
       <x:c r="A33" s="0">
-        <x:v>12978</x:v>
+        <x:v>12963</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D33" s="0">
         <x:v>12534</x:v>
@@ -2364,43 +2388,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F33" s="3">
-        <x:v>45418.497349537</x:v>
+        <x:v>45418.4972453704</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H33" s="3">
-        <x:v>45418.4998148148</x:v>
+        <x:v>45418.4999421296</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J33" s="3">
-        <x:v>45418.5003125</x:v>
+        <x:v>45418.5001851852</x:v>
       </x:c>
       <x:c r="K33" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L33" s="3">
-        <x:v>45425.4368981481</x:v>
+        <x:v>45425.4457638889</x:v>
       </x:c>
       <x:c r="M33" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N33" s="3">
-        <x:v>45425.4451388889</x:v>
+        <x:v>45425.4525231481</x:v>
       </x:c>
       <x:c r="O33" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P33" s="3">
-        <x:v>45425.5087962963</x:v>
+        <x:v>45425.4956597222</x:v>
       </x:c>
       <x:c r="Q33" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R33" s="3">
-        <x:v>45425.6498032407</x:v>
+        <x:v>45425.6496064815</x:v>
       </x:c>
       <x:c r="S33" s="0" t="s">
         <x:v>26</x:v>
@@ -2408,13 +2432,13 @@
     </x:row>
     <x:row r="34" spans="1:19">
       <x:c r="A34" s="0">
-        <x:v>12979</x:v>
+        <x:v>12964</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D34" s="0">
         <x:v>12534</x:v>
@@ -2423,43 +2447,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F34" s="3">
-        <x:v>45418.497349537</x:v>
+        <x:v>45418.4972453704</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H34" s="3">
-        <x:v>45418.4998148148</x:v>
+        <x:v>45418.4999305556</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J34" s="3">
-        <x:v>45418.5003125</x:v>
+        <x:v>45418.5001967593</x:v>
       </x:c>
       <x:c r="K34" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L34" s="3">
-        <x:v>45425.436875</x:v>
+        <x:v>45425.4413310185</x:v>
       </x:c>
       <x:c r="M34" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N34" s="3">
-        <x:v>45425.4449421296</x:v>
+        <x:v>45425.4496412037</x:v>
       </x:c>
       <x:c r="O34" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P34" s="3">
-        <x:v>45425.5087384259</x:v>
+        <x:v>45425.4969791667</x:v>
       </x:c>
       <x:c r="Q34" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R34" s="3">
-        <x:v>45425.6497569444</x:v>
+        <x:v>45425.6496990741</x:v>
       </x:c>
       <x:c r="S34" s="0" t="s">
         <x:v>26</x:v>
@@ -2467,63 +2491,72 @@
     </x:row>
     <x:row r="35" spans="1:19">
       <x:c r="A35" s="0">
-        <x:v>12980</x:v>
+        <x:v>12965</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D35" s="0">
+        <x:v>12534</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F35" s="3">
-        <x:v>45418.497349537</x:v>
+        <x:v>45418.4972453704</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H35" s="3">
-        <x:v>45418.4998032407</x:v>
+        <x:v>45418.4999189815</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J35" s="3">
-        <x:v>45418.5003240741</x:v>
+        <x:v>45418.5002083333</x:v>
       </x:c>
       <x:c r="K35" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L35" s="3">
-        <x:v>45425.4368402778</x:v>
+        <x:v>45425.4413657407</x:v>
       </x:c>
       <x:c r="M35" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N35" s="3">
-        <x:v>45425.4447685185</x:v>
+        <x:v>45425.4497916667</x:v>
       </x:c>
       <x:c r="O35" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P35" s="3">
-        <x:v>45425.5057986111</x:v>
+        <x:v>45425.4969212963</x:v>
       </x:c>
       <x:c r="Q35" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R35" s="4">
-        <x:v>-1</x:v>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R35" s="3">
+        <x:v>45425.6496875</x:v>
       </x:c>
       <x:c r="S35" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:19">
       <x:c r="A36" s="0">
-        <x:v>12981</x:v>
+        <x:v>12966</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D36" s="0">
         <x:v>12534</x:v>
@@ -2532,43 +2565,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F36" s="3">
-        <x:v>45418.497349537</x:v>
+        <x:v>45418.4972916667</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H36" s="3">
-        <x:v>45418.4997916667</x:v>
+        <x:v>45418.4999074074</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J36" s="3">
-        <x:v>45418.5003356481</x:v>
+        <x:v>45418.5002083333</x:v>
       </x:c>
       <x:c r="K36" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L36" s="3">
-        <x:v>45425.4321412037</x:v>
+        <x:v>45425.4412962963</x:v>
       </x:c>
       <x:c r="M36" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N36" s="3">
-        <x:v>45425.4416319444</x:v>
+        <x:v>45425.4495023148</x:v>
       </x:c>
       <x:c r="O36" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P36" s="3">
-        <x:v>45425.5056944444</x:v>
+        <x:v>45425.5088541667</x:v>
       </x:c>
       <x:c r="Q36" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R36" s="3">
-        <x:v>45425.6498148148</x:v>
+        <x:v>45425.6497916667</x:v>
       </x:c>
       <x:c r="S36" s="0" t="s">
         <x:v>26</x:v>
@@ -2576,13 +2609,13 @@
     </x:row>
     <x:row r="37" spans="1:19">
       <x:c r="A37" s="0">
-        <x:v>12982</x:v>
+        <x:v>12968</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D37" s="0">
         <x:v>12534</x:v>
@@ -2591,43 +2624,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F37" s="3">
-        <x:v>45418.497349537</x:v>
+        <x:v>45418.4972916667</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="H37" s="3">
-        <x:v>45418.4997916667</x:v>
+        <x:v>45418.4998958333</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J37" s="3">
-        <x:v>45418.5003356481</x:v>
+        <x:v>45418.5002314815</x:v>
       </x:c>
       <x:c r="K37" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L37" s="3">
-        <x:v>45425.4321759259</x:v>
+        <x:v>45425.4322106481</x:v>
       </x:c>
       <x:c r="M37" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N37" s="3">
-        <x:v>45425.4411111111</x:v>
+        <x:v>45425.4412615741</x:v>
       </x:c>
       <x:c r="O37" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P37" s="3">
-        <x:v>45425.497974537</x:v>
+        <x:v>45425.4980439815</x:v>
       </x:c>
       <x:c r="Q37" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R37" s="3">
-        <x:v>45425.6496412037</x:v>
+        <x:v>45425.6496180556</x:v>
       </x:c>
       <x:c r="S37" s="0" t="s">
         <x:v>26</x:v>
@@ -2635,58 +2668,58 @@
     </x:row>
     <x:row r="38" spans="1:19">
       <x:c r="A38" s="0">
-        <x:v>12990</x:v>
+        <x:v>12969</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D38" s="0">
-        <x:v>12518</x:v>
+        <x:v>12534</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F38" s="3">
-        <x:v>45418.5206944444</x:v>
+        <x:v>45418.4972916667</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H38" s="3">
-        <x:v>45418.561412037</x:v>
+        <x:v>45418.4998842593</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J38" s="3">
-        <x:v>45418.5617939815</x:v>
+        <x:v>45418.5002430556</x:v>
       </x:c>
       <x:c r="K38" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L38" s="3">
-        <x:v>45419.4947800926</x:v>
+        <x:v>45425.4322337963</x:v>
       </x:c>
       <x:c r="M38" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N38" s="3">
-        <x:v>45419.5035185185</x:v>
+        <x:v>45425.4414236111</x:v>
       </x:c>
       <x:c r="O38" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P38" s="3">
-        <x:v>45419.5118518519</x:v>
+        <x:v>45425.4981134259</x:v>
       </x:c>
       <x:c r="Q38" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R38" s="3">
-        <x:v>45419.655</x:v>
+        <x:v>45425.6496643519</x:v>
       </x:c>
       <x:c r="S38" s="0" t="s">
         <x:v>26</x:v>
@@ -2694,58 +2727,58 @@
     </x:row>
     <x:row r="39" spans="1:19">
       <x:c r="A39" s="0">
-        <x:v>12995</x:v>
+        <x:v>12970</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D39" s="0">
-        <x:v>12518</x:v>
+        <x:v>12534</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F39" s="3">
-        <x:v>45418.5206944444</x:v>
+        <x:v>45418.4972916667</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H39" s="3">
-        <x:v>45418.5613657407</x:v>
+        <x:v>45418.4998726852</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J39" s="3">
-        <x:v>45418.5617476852</x:v>
+        <x:v>45418.5002430556</x:v>
       </x:c>
       <x:c r="K39" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L39" s="3">
-        <x:v>45419.4863773148</x:v>
+        <x:v>45425.4368055556</x:v>
       </x:c>
       <x:c r="M39" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N39" s="3">
-        <x:v>45419.5028819444</x:v>
+        <x:v>45425.4445833333</x:v>
       </x:c>
       <x:c r="O39" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P39" s="3">
-        <x:v>45419.5128935185</x:v>
+        <x:v>45425.5057523148</x:v>
       </x:c>
       <x:c r="Q39" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R39" s="3">
-        <x:v>45419.6549537037</x:v>
+        <x:v>45425.6497800926</x:v>
       </x:c>
       <x:c r="S39" s="0" t="s">
         <x:v>26</x:v>
@@ -2753,58 +2786,58 @@
     </x:row>
     <x:row r="40" spans="1:19">
       <x:c r="A40" s="0">
-        <x:v>12996</x:v>
+        <x:v>12971</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D40" s="0">
-        <x:v>12518</x:v>
+        <x:v>12534</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F40" s="3">
-        <x:v>45418.5207175926</x:v>
+        <x:v>45418.4972916667</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H40" s="3">
-        <x:v>45418.5613657407</x:v>
+        <x:v>45418.4998726852</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J40" s="3">
-        <x:v>45418.5617361111</x:v>
+        <x:v>45418.5002546296</x:v>
       </x:c>
       <x:c r="K40" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L40" s="3">
-        <x:v>45419.486400463</x:v>
+        <x:v>45425.4412615741</x:v>
       </x:c>
       <x:c r="M40" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N40" s="3">
-        <x:v>45419.4943402778</x:v>
+        <x:v>45425.4499537037</x:v>
       </x:c>
       <x:c r="O40" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P40" s="3">
-        <x:v>45419.5134953704</x:v>
+        <x:v>45425.496875</x:v>
       </x:c>
       <x:c r="Q40" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R40" s="3">
-        <x:v>45420.3315393518</x:v>
+        <x:v>45425.6496527778</x:v>
       </x:c>
       <x:c r="S40" s="0" t="s">
         <x:v>26</x:v>
@@ -2812,58 +2845,58 @@
     </x:row>
     <x:row r="41" spans="1:19">
       <x:c r="A41" s="0">
-        <x:v>12997</x:v>
+        <x:v>12978</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D41" s="0">
-        <x:v>12518</x:v>
+        <x:v>12534</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F41" s="3">
-        <x:v>45418.5207175926</x:v>
+        <x:v>45418.497349537</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H41" s="3">
-        <x:v>45418.5613541667</x:v>
+        <x:v>45418.4998148148</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J41" s="3">
-        <x:v>45418.561724537</x:v>
+        <x:v>45418.5003125</x:v>
       </x:c>
       <x:c r="K41" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L41" s="3">
-        <x:v>45419.4863425926</x:v>
+        <x:v>45425.4368981481</x:v>
       </x:c>
       <x:c r="M41" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N41" s="3">
-        <x:v>45419.4947569444</x:v>
+        <x:v>45425.4451388889</x:v>
       </x:c>
       <x:c r="O41" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P41" s="3">
-        <x:v>45419.5015393519</x:v>
+        <x:v>45425.5087962963</x:v>
       </x:c>
       <x:c r="Q41" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R41" s="3">
-        <x:v>45420.3315162037</x:v>
+        <x:v>45425.6498032407</x:v>
       </x:c>
       <x:c r="S41" s="0" t="s">
         <x:v>26</x:v>
@@ -2871,58 +2904,58 @@
     </x:row>
     <x:row r="42" spans="1:19">
       <x:c r="A42" s="0">
-        <x:v>12998</x:v>
+        <x:v>12979</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D42" s="0">
-        <x:v>12518</x:v>
+        <x:v>12534</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F42" s="3">
-        <x:v>45418.5207175926</x:v>
+        <x:v>45418.497349537</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H42" s="3">
-        <x:v>45418.5613425926</x:v>
+        <x:v>45418.4998148148</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J42" s="3">
-        <x:v>45418.5616550926</x:v>
+        <x:v>45418.5003125</x:v>
       </x:c>
       <x:c r="K42" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L42" s="3">
-        <x:v>45419.4863194444</x:v>
+        <x:v>45425.436875</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N42" s="3">
-        <x:v>45419.5030555556</x:v>
+        <x:v>45425.4449421296</x:v>
       </x:c>
       <x:c r="O42" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P42" s="3">
-        <x:v>45419.5128240741</x:v>
+        <x:v>45425.5087384259</x:v>
       </x:c>
       <x:c r="Q42" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R42" s="3">
-        <x:v>45419.6550231481</x:v>
+        <x:v>45425.6497569444</x:v>
       </x:c>
       <x:c r="S42" s="0" t="s">
         <x:v>26</x:v>
@@ -2930,117 +2963,108 @@
     </x:row>
     <x:row r="43" spans="1:19">
       <x:c r="A43" s="0">
-        <x:v>13000</x:v>
-      </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>12980</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D43" s="0">
-        <x:v>12518</x:v>
-      </x:c>
-      <x:c r="E43" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F43" s="3">
-        <x:v>45418.5207175926</x:v>
+        <x:v>45418.497349537</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H43" s="3">
-        <x:v>45418.5613310185</x:v>
+        <x:v>45418.4998032407</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J43" s="3">
-        <x:v>45418.5616319444</x:v>
+        <x:v>45418.5003240741</x:v>
       </x:c>
       <x:c r="K43" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L43" s="3">
-        <x:v>45419.4893287037</x:v>
+        <x:v>45425.4368402778</x:v>
       </x:c>
       <x:c r="M43" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N43" s="3">
-        <x:v>45419.4985648148</x:v>
+        <x:v>45425.4447685185</x:v>
       </x:c>
       <x:c r="O43" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P43" s="3">
-        <x:v>45419.5008912037</x:v>
+        <x:v>45425.5057986111</x:v>
       </x:c>
       <x:c r="Q43" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R43" s="3">
-        <x:v>45420.3314583333</x:v>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R43" s="4">
+        <x:v>-1</x:v>
       </x:c>
       <x:c r="S43" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:19">
       <x:c r="A44" s="0">
-        <x:v>13001</x:v>
+        <x:v>12981</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D44" s="0">
-        <x:v>12518</x:v>
+        <x:v>12534</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F44" s="3">
-        <x:v>45418.5207175926</x:v>
+        <x:v>45418.497349537</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H44" s="3">
-        <x:v>45418.5613194444</x:v>
+        <x:v>45418.4997916667</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J44" s="3">
-        <x:v>45418.5616203704</x:v>
+        <x:v>45418.5003356481</x:v>
       </x:c>
       <x:c r="K44" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L44" s="3">
-        <x:v>45419.4919444444</x:v>
+        <x:v>45425.4321412037</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N44" s="3">
-        <x:v>45419.4988541667</x:v>
+        <x:v>45425.4416319444</x:v>
       </x:c>
       <x:c r="O44" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P44" s="3">
-        <x:v>45419.5000578704</x:v>
+        <x:v>45425.5056944444</x:v>
       </x:c>
       <x:c r="Q44" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R44" s="3">
-        <x:v>45419.6550115741</x:v>
+        <x:v>45425.6498148148</x:v>
       </x:c>
       <x:c r="S44" s="0" t="s">
         <x:v>26</x:v>
@@ -3048,58 +3072,58 @@
     </x:row>
     <x:row r="45" spans="1:19">
       <x:c r="A45" s="0">
-        <x:v>13002</x:v>
+        <x:v>12982</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D45" s="0">
-        <x:v>12518</x:v>
+        <x:v>12534</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F45" s="3">
-        <x:v>45418.5207175926</x:v>
+        <x:v>45418.497349537</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H45" s="3">
-        <x:v>45418.5613194444</x:v>
+        <x:v>45418.4997916667</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J45" s="3">
-        <x:v>45418.5616203704</x:v>
+        <x:v>45418.5003356481</x:v>
       </x:c>
       <x:c r="K45" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L45" s="3">
-        <x:v>45419.4893055556</x:v>
+        <x:v>45425.4321759259</x:v>
       </x:c>
       <x:c r="M45" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N45" s="3">
-        <x:v>45419.4948842593</x:v>
+        <x:v>45425.4411111111</x:v>
       </x:c>
       <x:c r="O45" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P45" s="3">
-        <x:v>45419.5014930556</x:v>
+        <x:v>45425.497974537</x:v>
       </x:c>
       <x:c r="Q45" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R45" s="3">
-        <x:v>45420.3314930556</x:v>
+        <x:v>45425.6496412037</x:v>
       </x:c>
       <x:c r="S45" s="0" t="s">
         <x:v>26</x:v>
@@ -3107,13 +3131,13 @@
     </x:row>
     <x:row r="46" spans="1:19">
       <x:c r="A46" s="0">
-        <x:v>13003</x:v>
+        <x:v>12990</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D46" s="0">
         <x:v>12518</x:v>
@@ -3122,43 +3146,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F46" s="3">
-        <x:v>45418.5207175926</x:v>
+        <x:v>45418.5206944444</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H46" s="3">
-        <x:v>45418.5613078704</x:v>
+        <x:v>45418.561412037</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J46" s="3">
-        <x:v>45418.5616087963</x:v>
+        <x:v>45418.5617939815</x:v>
       </x:c>
       <x:c r="K46" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L46" s="3">
-        <x:v>45419.4919328704</x:v>
+        <x:v>45419.4947800926</x:v>
       </x:c>
       <x:c r="M46" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N46" s="3">
-        <x:v>45419.4990162037</x:v>
+        <x:v>45419.5035185185</x:v>
       </x:c>
       <x:c r="O46" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P46" s="3">
-        <x:v>45419.4999421296</x:v>
+        <x:v>45419.5118518519</x:v>
       </x:c>
       <x:c r="Q46" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R46" s="3">
-        <x:v>45420.3315046296</x:v>
+        <x:v>45419.655</x:v>
       </x:c>
       <x:c r="S46" s="0" t="s">
         <x:v>26</x:v>
@@ -3166,13 +3190,13 @@
     </x:row>
     <x:row r="47" spans="1:19">
       <x:c r="A47" s="0">
-        <x:v>13004</x:v>
+        <x:v>12995</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D47" s="0">
         <x:v>12518</x:v>
@@ -3181,43 +3205,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F47" s="3">
-        <x:v>45418.5207175926</x:v>
+        <x:v>45418.5206944444</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H47" s="3">
-        <x:v>45418.5612962963</x:v>
+        <x:v>45418.5613657407</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J47" s="3">
-        <x:v>45418.5615972222</x:v>
+        <x:v>45418.5617476852</x:v>
       </x:c>
       <x:c r="K47" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L47" s="3">
-        <x:v>45419.4947569444</x:v>
+        <x:v>45419.4863773148</x:v>
       </x:c>
       <x:c r="M47" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N47" s="3">
-        <x:v>45419.5033564815</x:v>
+        <x:v>45419.5028819444</x:v>
       </x:c>
       <x:c r="O47" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P47" s="3">
-        <x:v>45419.5119097222</x:v>
+        <x:v>45419.5128935185</x:v>
       </x:c>
       <x:c r="Q47" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R47" s="3">
-        <x:v>45419.6549768519</x:v>
+        <x:v>45419.6549537037</x:v>
       </x:c>
       <x:c r="S47" s="0" t="s">
         <x:v>26</x:v>
@@ -3225,13 +3249,13 @@
     </x:row>
     <x:row r="48" spans="1:19">
       <x:c r="A48" s="0">
-        <x:v>13011</x:v>
+        <x:v>12996</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D48" s="0">
         <x:v>12518</x:v>
@@ -3240,43 +3264,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F48" s="3">
-        <x:v>45418.5207407407</x:v>
+        <x:v>45418.5207175926</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H48" s="3">
-        <x:v>45418.5612384259</x:v>
+        <x:v>45418.5613657407</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J48" s="3">
-        <x:v>45418.5615509259</x:v>
+        <x:v>45418.5617361111</x:v>
       </x:c>
       <x:c r="K48" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L48" s="3">
-        <x:v>45419.4947222222</x:v>
+        <x:v>45419.486400463</x:v>
       </x:c>
       <x:c r="M48" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N48" s="3">
-        <x:v>45419.5032175926</x:v>
+        <x:v>45419.4943402778</x:v>
       </x:c>
       <x:c r="O48" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P48" s="3">
-        <x:v>45419.5119675926</x:v>
+        <x:v>45419.5134953704</x:v>
       </x:c>
       <x:c r="Q48" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R48" s="3">
-        <x:v>45419.6549768519</x:v>
+        <x:v>45420.3315393518</x:v>
       </x:c>
       <x:c r="S48" s="0" t="s">
         <x:v>26</x:v>
@@ -3284,13 +3308,13 @@
     </x:row>
     <x:row r="49" spans="1:19">
       <x:c r="A49" s="0">
-        <x:v>13012</x:v>
+        <x:v>12997</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D49" s="0">
         <x:v>12518</x:v>
@@ -3299,43 +3323,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F49" s="3">
-        <x:v>45418.5207407407</x:v>
+        <x:v>45418.5207175926</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H49" s="3">
-        <x:v>45418.5612268519</x:v>
+        <x:v>45418.5613541667</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J49" s="3">
-        <x:v>45418.5615393519</x:v>
+        <x:v>45418.561724537</x:v>
       </x:c>
       <x:c r="K49" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L49" s="3">
-        <x:v>45419.4918634259</x:v>
+        <x:v>45419.4863425926</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N49" s="3">
-        <x:v>45419.4987152778</x:v>
+        <x:v>45419.4947569444</x:v>
       </x:c>
       <x:c r="O49" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P49" s="3">
-        <x:v>45419.5009259259</x:v>
+        <x:v>45419.5015393519</x:v>
       </x:c>
       <x:c r="Q49" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R49" s="3">
-        <x:v>45419.6550347222</x:v>
+        <x:v>45420.3315162037</x:v>
       </x:c>
       <x:c r="S49" s="0" t="s">
         <x:v>26</x:v>
@@ -3343,13 +3367,13 @@
     </x:row>
     <x:row r="50" spans="1:19">
       <x:c r="A50" s="0">
-        <x:v>13013</x:v>
+        <x:v>12998</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D50" s="0">
         <x:v>12518</x:v>
@@ -3358,43 +3382,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F50" s="3">
-        <x:v>45418.5207407407</x:v>
+        <x:v>45418.5207175926</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H50" s="3">
-        <x:v>45418.5612268519</x:v>
+        <x:v>45418.5613425926</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J50" s="3">
-        <x:v>45418.5615277778</x:v>
+        <x:v>45418.5616550926</x:v>
       </x:c>
       <x:c r="K50" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L50" s="3">
-        <x:v>45419.4918981481</x:v>
+        <x:v>45419.4863194444</x:v>
       </x:c>
       <x:c r="M50" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N50" s="3">
-        <x:v>45419.4991898148</x:v>
+        <x:v>45419.5030555556</x:v>
       </x:c>
       <x:c r="O50" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P50" s="3">
-        <x:v>45419.4999884259</x:v>
+        <x:v>45419.5128240741</x:v>
       </x:c>
       <x:c r="Q50" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R50" s="3">
-        <x:v>45420.3314699074</x:v>
+        <x:v>45419.6550231481</x:v>
       </x:c>
       <x:c r="S50" s="0" t="s">
         <x:v>26</x:v>
@@ -3402,13 +3426,13 @@
     </x:row>
     <x:row r="51" spans="1:19">
       <x:c r="A51" s="0">
-        <x:v>13014</x:v>
+        <x:v>13000</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D51" s="0">
         <x:v>12518</x:v>
@@ -3417,43 +3441,43 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F51" s="3">
-        <x:v>45418.5207407407</x:v>
+        <x:v>45418.5207175926</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H51" s="3">
-        <x:v>45418.5612152778</x:v>
+        <x:v>45418.5613310185</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="J51" s="3">
-        <x:v>45418.5615162037</x:v>
+        <x:v>45418.5616319444</x:v>
       </x:c>
       <x:c r="K51" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L51" s="3">
-        <x:v>45419.4892824074</x:v>
+        <x:v>45419.4893287037</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N51" s="3">
-        <x:v>45419.4944791667</x:v>
+        <x:v>45419.4985648148</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P51" s="3">
-        <x:v>45419.5135416667</x:v>
+        <x:v>45419.5008912037</x:v>
       </x:c>
       <x:c r="Q51" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="R51" s="3">
-        <x:v>45419.6549652778</x:v>
+        <x:v>45420.3314583333</x:v>
       </x:c>
       <x:c r="S51" s="0" t="s">
         <x:v>26</x:v>
@@ -3461,13 +3485,13 @@
     </x:row>
     <x:row r="52" spans="1:19">
       <x:c r="A52" s="0">
-        <x:v>13015</x:v>
+        <x:v>13001</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D52" s="0">
         <x:v>12518</x:v>
@@ -3476,45 +3500,1107 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F52" s="3">
+        <x:v>45418.5207175926</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H52" s="3">
+        <x:v>45418.5613194444</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J52" s="3">
+        <x:v>45418.5616203704</x:v>
+      </x:c>
+      <x:c r="K52" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L52" s="3">
+        <x:v>45419.4919444444</x:v>
+      </x:c>
+      <x:c r="M52" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N52" s="3">
+        <x:v>45419.4988541667</x:v>
+      </x:c>
+      <x:c r="O52" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P52" s="3">
+        <x:v>45419.5000578704</x:v>
+      </x:c>
+      <x:c r="Q52" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R52" s="3">
+        <x:v>45419.6550115741</x:v>
+      </x:c>
+      <x:c r="S52" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:19">
+      <x:c r="A53" s="0">
+        <x:v>13002</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D53" s="0">
+        <x:v>12518</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F53" s="3">
+        <x:v>45418.5207175926</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H53" s="3">
+        <x:v>45418.5613194444</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J53" s="3">
+        <x:v>45418.5616203704</x:v>
+      </x:c>
+      <x:c r="K53" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L53" s="3">
+        <x:v>45419.4893055556</x:v>
+      </x:c>
+      <x:c r="M53" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N53" s="3">
+        <x:v>45419.4948842593</x:v>
+      </x:c>
+      <x:c r="O53" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P53" s="3">
+        <x:v>45419.5014930556</x:v>
+      </x:c>
+      <x:c r="Q53" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R53" s="3">
+        <x:v>45420.3314930556</x:v>
+      </x:c>
+      <x:c r="S53" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:19">
+      <x:c r="A54" s="0">
+        <x:v>13003</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D54" s="0">
+        <x:v>12518</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F54" s="3">
+        <x:v>45418.5207175926</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H54" s="3">
+        <x:v>45418.5613078704</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J54" s="3">
+        <x:v>45418.5616087963</x:v>
+      </x:c>
+      <x:c r="K54" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L54" s="3">
+        <x:v>45419.4919328704</x:v>
+      </x:c>
+      <x:c r="M54" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N54" s="3">
+        <x:v>45419.4990162037</x:v>
+      </x:c>
+      <x:c r="O54" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P54" s="3">
+        <x:v>45419.4999421296</x:v>
+      </x:c>
+      <x:c r="Q54" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R54" s="3">
+        <x:v>45420.3315046296</x:v>
+      </x:c>
+      <x:c r="S54" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:19">
+      <x:c r="A55" s="0">
+        <x:v>13004</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D55" s="0">
+        <x:v>12518</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F55" s="3">
+        <x:v>45418.5207175926</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H55" s="3">
+        <x:v>45418.5612962963</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J55" s="3">
+        <x:v>45418.5615972222</x:v>
+      </x:c>
+      <x:c r="K55" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L55" s="3">
+        <x:v>45419.4947569444</x:v>
+      </x:c>
+      <x:c r="M55" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N55" s="3">
+        <x:v>45419.5033564815</x:v>
+      </x:c>
+      <x:c r="O55" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P55" s="3">
+        <x:v>45419.5119097222</x:v>
+      </x:c>
+      <x:c r="Q55" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R55" s="3">
+        <x:v>45419.6549768519</x:v>
+      </x:c>
+      <x:c r="S55" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:19">
+      <x:c r="A56" s="0">
+        <x:v>13011</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D56" s="0">
+        <x:v>12518</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F56" s="3">
         <x:v>45418.5207407407</x:v>
       </x:c>
-      <x:c r="G52" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H52" s="3">
+      <x:c r="G56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H56" s="3">
+        <x:v>45418.5612384259</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J56" s="3">
+        <x:v>45418.5615509259</x:v>
+      </x:c>
+      <x:c r="K56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L56" s="3">
+        <x:v>45419.4947222222</x:v>
+      </x:c>
+      <x:c r="M56" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N56" s="3">
+        <x:v>45419.5032175926</x:v>
+      </x:c>
+      <x:c r="O56" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P56" s="3">
+        <x:v>45419.5119675926</x:v>
+      </x:c>
+      <x:c r="Q56" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R56" s="3">
+        <x:v>45419.6549768519</x:v>
+      </x:c>
+      <x:c r="S56" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:19">
+      <x:c r="A57" s="0">
+        <x:v>13012</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D57" s="0">
+        <x:v>12518</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F57" s="3">
+        <x:v>45418.5207407407</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H57" s="3">
+        <x:v>45418.5612268519</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J57" s="3">
+        <x:v>45418.5615393519</x:v>
+      </x:c>
+      <x:c r="K57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L57" s="3">
+        <x:v>45419.4918634259</x:v>
+      </x:c>
+      <x:c r="M57" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N57" s="3">
+        <x:v>45419.4987152778</x:v>
+      </x:c>
+      <x:c r="O57" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P57" s="3">
+        <x:v>45419.5009259259</x:v>
+      </x:c>
+      <x:c r="Q57" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R57" s="3">
+        <x:v>45419.6550347222</x:v>
+      </x:c>
+      <x:c r="S57" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:19">
+      <x:c r="A58" s="0">
+        <x:v>13013</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D58" s="0">
+        <x:v>12518</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F58" s="3">
+        <x:v>45418.5207407407</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H58" s="3">
+        <x:v>45418.5612268519</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J58" s="3">
+        <x:v>45418.5615277778</x:v>
+      </x:c>
+      <x:c r="K58" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L58" s="3">
+        <x:v>45419.4918981481</x:v>
+      </x:c>
+      <x:c r="M58" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N58" s="3">
+        <x:v>45419.4991898148</x:v>
+      </x:c>
+      <x:c r="O58" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P58" s="3">
+        <x:v>45419.4999884259</x:v>
+      </x:c>
+      <x:c r="Q58" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R58" s="3">
+        <x:v>45420.3314699074</x:v>
+      </x:c>
+      <x:c r="S58" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:19">
+      <x:c r="A59" s="0">
+        <x:v>13014</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D59" s="0">
+        <x:v>12518</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F59" s="3">
+        <x:v>45418.5207407407</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H59" s="3">
+        <x:v>45418.5612152778</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J59" s="3">
+        <x:v>45418.5615162037</x:v>
+      </x:c>
+      <x:c r="K59" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L59" s="3">
+        <x:v>45419.4892824074</x:v>
+      </x:c>
+      <x:c r="M59" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N59" s="3">
+        <x:v>45419.4944791667</x:v>
+      </x:c>
+      <x:c r="O59" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P59" s="3">
+        <x:v>45419.5135416667</x:v>
+      </x:c>
+      <x:c r="Q59" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R59" s="3">
+        <x:v>45419.6549652778</x:v>
+      </x:c>
+      <x:c r="S59" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:19">
+      <x:c r="A60" s="0">
+        <x:v>13015</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D60" s="0">
+        <x:v>12518</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F60" s="3">
+        <x:v>45418.5207407407</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H60" s="3">
         <x:v>45418.5611921296</x:v>
       </x:c>
-      <x:c r="I52" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="J52" s="3">
+      <x:c r="I60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J60" s="3">
         <x:v>45418.5615046296</x:v>
       </x:c>
-      <x:c r="K52" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L52" s="3">
+      <x:c r="K60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L60" s="3">
         <x:v>45419.4892476852</x:v>
       </x:c>
-      <x:c r="M52" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N52" s="3">
+      <x:c r="M60" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N60" s="3">
         <x:v>45419.4946180556</x:v>
       </x:c>
-      <x:c r="O52" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P52" s="3">
+      <x:c r="O60" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P60" s="3">
         <x:v>45419.5022916667</x:v>
       </x:c>
-      <x:c r="Q52" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R52" s="3">
+      <x:c r="Q60" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R60" s="3">
         <x:v>45420.3314467593</x:v>
       </x:c>
-      <x:c r="S52" s="0" t="s">
+      <x:c r="S60" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:19">
+      <x:c r="A61" s="0">
+        <x:v>13018</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D61" s="0">
+        <x:v>12537</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F61" s="3">
+        <x:v>45420.3925115741</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H61" s="3">
+        <x:v>45420.3936574074</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J61" s="3">
+        <x:v>45420.3939699074</x:v>
+      </x:c>
+      <x:c r="K61" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L61" s="3">
+        <x:v>45425.6074421296</x:v>
+      </x:c>
+      <x:c r="M61" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N61" s="3">
+        <x:v>45425.6253587963</x:v>
+      </x:c>
+      <x:c r="O61" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P61" s="3">
+        <x:v>45425.6344444444</x:v>
+      </x:c>
+      <x:c r="Q61" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R61" s="3">
+        <x:v>45426.5071990741</x:v>
+      </x:c>
+      <x:c r="S61" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:19">
+      <x:c r="A62" s="0">
+        <x:v>13021</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D62" s="0">
+        <x:v>12748</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F62" s="3">
+        <x:v>45420.3925115741</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H62" s="3">
+        <x:v>45420.3936226852</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J62" s="3">
+        <x:v>45420.3939467593</x:v>
+      </x:c>
+      <x:c r="K62" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L62" s="3">
+        <x:v>45491.4053356481</x:v>
+      </x:c>
+      <x:c r="M62" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N62" s="3">
+        <x:v>45491.5789236111</x:v>
+      </x:c>
+      <x:c r="O62" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P62" s="3">
+        <x:v>45491.5923148148</x:v>
+      </x:c>
+      <x:c r="Q62" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R62" s="3">
+        <x:v>45495.6218865741</x:v>
+      </x:c>
+      <x:c r="S62" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:19">
+      <x:c r="A63" s="0">
+        <x:v>13024</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D63" s="0">
+        <x:v>12592</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F63" s="3">
+        <x:v>45420.3925115741</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H63" s="3">
+        <x:v>45420.393599537</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J63" s="3">
+        <x:v>45420.3938888889</x:v>
+      </x:c>
+      <x:c r="K63" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L63" s="3">
+        <x:v>45440.5024768518</x:v>
+      </x:c>
+      <x:c r="M63" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N63" s="3">
+        <x:v>45440.5025115741</x:v>
+      </x:c>
+      <x:c r="O63" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P63" s="3">
+        <x:v>45440.5027662037</x:v>
+      </x:c>
+      <x:c r="Q63" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R63" s="3">
+        <x:v>45440.5028125</x:v>
+      </x:c>
+      <x:c r="S63" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:19">
+      <x:c r="A64" s="0">
+        <x:v>13025</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D64" s="0">
+        <x:v>12592</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F64" s="3">
+        <x:v>45420.3925115741</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H64" s="3">
+        <x:v>45420.393587963</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J64" s="3">
+        <x:v>45420.3938657407</x:v>
+      </x:c>
+      <x:c r="K64" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L64" s="3">
+        <x:v>45440.5025</x:v>
+      </x:c>
+      <x:c r="M64" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N64" s="3">
+        <x:v>45440.5025462963</x:v>
+      </x:c>
+      <x:c r="O64" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P64" s="3">
+        <x:v>45440.5028009259</x:v>
+      </x:c>
+      <x:c r="Q64" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R64" s="3">
+        <x:v>45440.5028356481</x:v>
+      </x:c>
+      <x:c r="S64" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:19">
+      <x:c r="A65" s="0">
+        <x:v>13026</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D65" s="0">
+        <x:v>12592</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F65" s="3">
+        <x:v>45420.3925578704</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H65" s="3">
+        <x:v>45420.393587963</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J65" s="3">
+        <x:v>45420.3938541667</x:v>
+      </x:c>
+      <x:c r="K65" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L65" s="3">
+        <x:v>45435.6147569444</x:v>
+      </x:c>
+      <x:c r="M65" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N65" s="3">
+        <x:v>45435.6336689815</x:v>
+      </x:c>
+      <x:c r="O65" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P65" s="3">
+        <x:v>45435.6584722222</x:v>
+      </x:c>
+      <x:c r="Q65" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R65" s="3">
+        <x:v>45440.501412037</x:v>
+      </x:c>
+      <x:c r="S65" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:19">
+      <x:c r="A66" s="0">
+        <x:v>13027</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D66" s="0">
+        <x:v>12537</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F66" s="3">
+        <x:v>45420.3925578704</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H66" s="3">
+        <x:v>45420.3935763889</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J66" s="3">
+        <x:v>45420.3938425926</x:v>
+      </x:c>
+      <x:c r="K66" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L66" s="3">
+        <x:v>45425.6034490741</x:v>
+      </x:c>
+      <x:c r="M66" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N66" s="3">
+        <x:v>45425.6166898148</x:v>
+      </x:c>
+      <x:c r="O66" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P66" s="3">
+        <x:v>45425.6544328704</x:v>
+      </x:c>
+      <x:c r="Q66" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R66" s="3">
+        <x:v>45426.5071064815</x:v>
+      </x:c>
+      <x:c r="S66" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:19">
+      <x:c r="A67" s="0">
+        <x:v>13028</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D67" s="0">
+        <x:v>12537</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F67" s="3">
+        <x:v>45420.3925578704</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H67" s="3">
+        <x:v>45420.3935648148</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J67" s="3">
+        <x:v>45420.3938425926</x:v>
+      </x:c>
+      <x:c r="K67" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L67" s="3">
+        <x:v>45425.6034259259</x:v>
+      </x:c>
+      <x:c r="M67" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N67" s="3">
+        <x:v>45425.6180671296</x:v>
+      </x:c>
+      <x:c r="O67" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P67" s="3">
+        <x:v>45425.6481365741</x:v>
+      </x:c>
+      <x:c r="Q67" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R67" s="3">
+        <x:v>45426.5071875</x:v>
+      </x:c>
+      <x:c r="S67" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:19">
+      <x:c r="A68" s="0">
+        <x:v>13029</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D68" s="0">
+        <x:v>12537</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F68" s="3">
+        <x:v>45420.3925578704</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H68" s="3">
+        <x:v>45420.3935648148</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J68" s="3">
+        <x:v>45420.3938310185</x:v>
+      </x:c>
+      <x:c r="K68" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L68" s="3">
+        <x:v>45425.6033796296</x:v>
+      </x:c>
+      <x:c r="M68" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N68" s="3">
+        <x:v>45425.6323726852</x:v>
+      </x:c>
+      <x:c r="O68" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P68" s="3">
+        <x:v>45425.6788657407</x:v>
+      </x:c>
+      <x:c r="Q68" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R68" s="3">
+        <x:v>45426.5070486111</x:v>
+      </x:c>
+      <x:c r="S68" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:19">
+      <x:c r="A69" s="0">
+        <x:v>13030</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D69" s="0">
+        <x:v>12537</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F69" s="3">
+        <x:v>45420.3925578704</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H69" s="3">
+        <x:v>45420.3935532407</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J69" s="3">
+        <x:v>45420.3938194444</x:v>
+      </x:c>
+      <x:c r="K69" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L69" s="3">
+        <x:v>45425.6033449074</x:v>
+      </x:c>
+      <x:c r="M69" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N69" s="3">
+        <x:v>45425.6309259259</x:v>
+      </x:c>
+      <x:c r="O69" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P69" s="3">
+        <x:v>45425.6811805556</x:v>
+      </x:c>
+      <x:c r="Q69" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R69" s="3">
+        <x:v>45426.5070717593</x:v>
+      </x:c>
+      <x:c r="S69" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:19">
+      <x:c r="A70" s="0">
+        <x:v>13035</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D70" s="0">
+        <x:v>12537</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F70" s="3">
+        <x:v>45420.3925578704</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H70" s="3">
+        <x:v>45420.3934953704</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J70" s="3">
+        <x:v>45420.3937268518</x:v>
+      </x:c>
+      <x:c r="K70" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L70" s="3">
+        <x:v>45425.6033101852</x:v>
+      </x:c>
+      <x:c r="M70" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N70" s="3">
+        <x:v>45425.6399652778</x:v>
+      </x:c>
+      <x:c r="O70" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P70" s="3">
+        <x:v>45425.6567013889</x:v>
+      </x:c>
+      <x:c r="Q70" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="R70" s="3">
+        <x:v>45426.5069907407</x:v>
+      </x:c>
+      <x:c r="S70" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>

--- a/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Юлия Россинская.xlsx
+++ b/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Юлия Россинская.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Сотрудник Юлия Россинская: 10071,04 руб.</x:t>
+    <x:t>Сотрудник Юлия Россинская: 10131,52 руб.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Сер.№</x:t>
@@ -451,6 +451,9 @@
     <x:t>23.05.2024 14:21:18</x:t>
   </x:si>
   <x:si>
+    <x:t>29.05.2024 15:31:47</x:t>
+  </x:si>
+  <x:si>
     <x:t>23.05.2024 14:21:16</x:t>
   </x:si>
   <x:si>
@@ -530,6 +533,9 @@
   </x:si>
   <x:si>
     <x:t>17.05.2024 12:39:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.05.2024 16:43:07</x:t>
   </x:si>
   <x:si>
     <x:t>20.05.2024 9:47:11</x:t>
@@ -1300,7 +1306,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:S258"/>
+  <x:dimension ref="A1:S260"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -7570,7 +7576,7 @@
     </x:row>
     <x:row r="108" spans="1:19">
       <x:c r="A108" s="0">
-        <x:v>13155</x:v>
+        <x:v>13151</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
         <x:v>141</x:v>
@@ -7629,16 +7635,16 @@
     </x:row>
     <x:row r="109" spans="1:19">
       <x:c r="A109" s="0">
-        <x:v>13161</x:v>
+        <x:v>13155</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D109" s="0">
-        <x:v>12553</x:v>
+        <x:v>12538</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
         <x:v>22</x:v>
@@ -7688,7 +7694,7 @@
     </x:row>
     <x:row r="110" spans="1:19">
       <x:c r="A110" s="0">
-        <x:v>13162</x:v>
+        <x:v>13161</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
         <x:v>100</x:v>
@@ -7747,7 +7753,7 @@
     </x:row>
     <x:row r="111" spans="1:19">
       <x:c r="A111" s="0">
-        <x:v>13163</x:v>
+        <x:v>13162</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
         <x:v>100</x:v>
@@ -7806,7 +7812,7 @@
     </x:row>
     <x:row r="112" spans="1:19">
       <x:c r="A112" s="0">
-        <x:v>13164</x:v>
+        <x:v>13163</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
         <x:v>100</x:v>
@@ -7865,7 +7871,7 @@
     </x:row>
     <x:row r="113" spans="1:19">
       <x:c r="A113" s="0">
-        <x:v>13167</x:v>
+        <x:v>13164</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
         <x:v>100</x:v>
@@ -7924,7 +7930,7 @@
     </x:row>
     <x:row r="114" spans="1:19">
       <x:c r="A114" s="0">
-        <x:v>13168</x:v>
+        <x:v>13167</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
         <x:v>100</x:v>
@@ -7983,7 +7989,7 @@
     </x:row>
     <x:row r="115" spans="1:19">
       <x:c r="A115" s="0">
-        <x:v>13169</x:v>
+        <x:v>13168</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
         <x:v>100</x:v>
@@ -8042,7 +8048,7 @@
     </x:row>
     <x:row r="116" spans="1:19">
       <x:c r="A116" s="0">
-        <x:v>13175</x:v>
+        <x:v>13169</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
         <x:v>100</x:v>
@@ -8101,7 +8107,7 @@
     </x:row>
     <x:row r="117" spans="1:19">
       <x:c r="A117" s="0">
-        <x:v>13176</x:v>
+        <x:v>13175</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
         <x:v>100</x:v>
@@ -8160,7 +8166,7 @@
     </x:row>
     <x:row r="118" spans="1:19">
       <x:c r="A118" s="0">
-        <x:v>13177</x:v>
+        <x:v>13176</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
         <x:v>100</x:v>
@@ -8219,7 +8225,7 @@
     </x:row>
     <x:row r="119" spans="1:19">
       <x:c r="A119" s="0">
-        <x:v>13178</x:v>
+        <x:v>13177</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
         <x:v>100</x:v>
@@ -8278,7 +8284,7 @@
     </x:row>
     <x:row r="120" spans="1:19">
       <x:c r="A120" s="0">
-        <x:v>13179</x:v>
+        <x:v>13178</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
         <x:v>100</x:v>
@@ -8337,7 +8343,7 @@
     </x:row>
     <x:row r="121" spans="1:19">
       <x:c r="A121" s="0">
-        <x:v>13182</x:v>
+        <x:v>13179</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
         <x:v>100</x:v>
@@ -8396,7 +8402,7 @@
     </x:row>
     <x:row r="122" spans="1:19">
       <x:c r="A122" s="0">
-        <x:v>13186</x:v>
+        <x:v>13182</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
         <x:v>100</x:v>
@@ -8455,7 +8461,7 @@
     </x:row>
     <x:row r="123" spans="1:19">
       <x:c r="A123" s="0">
-        <x:v>13187</x:v>
+        <x:v>13186</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
         <x:v>100</x:v>
@@ -8514,7 +8520,7 @@
     </x:row>
     <x:row r="124" spans="1:19">
       <x:c r="A124" s="0">
-        <x:v>13188</x:v>
+        <x:v>13187</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
         <x:v>100</x:v>
@@ -8573,7 +8579,7 @@
     </x:row>
     <x:row r="125" spans="1:19">
       <x:c r="A125" s="0">
-        <x:v>13191</x:v>
+        <x:v>13188</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
         <x:v>100</x:v>
@@ -8632,7 +8638,7 @@
     </x:row>
     <x:row r="126" spans="1:19">
       <x:c r="A126" s="0">
-        <x:v>13192</x:v>
+        <x:v>13191</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
         <x:v>100</x:v>
@@ -8691,7 +8697,7 @@
     </x:row>
     <x:row r="127" spans="1:19">
       <x:c r="A127" s="0">
-        <x:v>13193</x:v>
+        <x:v>13192</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
         <x:v>100</x:v>
@@ -8750,7 +8756,7 @@
     </x:row>
     <x:row r="128" spans="1:19">
       <x:c r="A128" s="0">
-        <x:v>13194</x:v>
+        <x:v>13193</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
         <x:v>100</x:v>
@@ -8809,7 +8815,7 @@
     </x:row>
     <x:row r="129" spans="1:19">
       <x:c r="A129" s="0">
-        <x:v>13195</x:v>
+        <x:v>13194</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
         <x:v>100</x:v>
@@ -8868,7 +8874,7 @@
     </x:row>
     <x:row r="130" spans="1:19">
       <x:c r="A130" s="0">
-        <x:v>13206</x:v>
+        <x:v>13195</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
         <x:v>100</x:v>
@@ -8927,7 +8933,7 @@
     </x:row>
     <x:row r="131" spans="1:19">
       <x:c r="A131" s="0">
-        <x:v>13207</x:v>
+        <x:v>13206</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
         <x:v>100</x:v>
@@ -8986,7 +8992,7 @@
     </x:row>
     <x:row r="132" spans="1:19">
       <x:c r="A132" s="0">
-        <x:v>13208</x:v>
+        <x:v>13207</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
         <x:v>100</x:v>
@@ -9045,7 +9051,7 @@
     </x:row>
     <x:row r="133" spans="1:19">
       <x:c r="A133" s="0">
-        <x:v>13209</x:v>
+        <x:v>13208</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
         <x:v>100</x:v>
@@ -9104,7 +9110,7 @@
     </x:row>
     <x:row r="134" spans="1:19">
       <x:c r="A134" s="0">
-        <x:v>13210</x:v>
+        <x:v>13209</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
         <x:v>100</x:v>
@@ -9163,7 +9169,7 @@
     </x:row>
     <x:row r="135" spans="1:19">
       <x:c r="A135" s="0">
-        <x:v>13255</x:v>
+        <x:v>13210</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
         <x:v>100</x:v>
@@ -9222,16 +9228,16 @@
     </x:row>
     <x:row r="136" spans="1:19">
       <x:c r="A136" s="0">
-        <x:v>13256</x:v>
+        <x:v>13242</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D136" s="0">
-        <x:v>12553</x:v>
+        <x:v>12607</x:v>
       </x:c>
       <x:c r="E136" s="0" t="s">
         <x:v>22</x:v>
@@ -9281,7 +9287,7 @@
     </x:row>
     <x:row r="137" spans="1:19">
       <x:c r="A137" s="0">
-        <x:v>13257</x:v>
+        <x:v>13255</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
         <x:v>100</x:v>
@@ -9340,7 +9346,7 @@
     </x:row>
     <x:row r="138" spans="1:19">
       <x:c r="A138" s="0">
-        <x:v>13261</x:v>
+        <x:v>13256</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
         <x:v>100</x:v>
@@ -9399,7 +9405,7 @@
     </x:row>
     <x:row r="139" spans="1:19">
       <x:c r="A139" s="0">
-        <x:v>13262</x:v>
+        <x:v>13257</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
         <x:v>100</x:v>
@@ -9458,7 +9464,7 @@
     </x:row>
     <x:row r="140" spans="1:19">
       <x:c r="A140" s="0">
-        <x:v>13263</x:v>
+        <x:v>13261</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
         <x:v>100</x:v>
@@ -9517,7 +9523,7 @@
     </x:row>
     <x:row r="141" spans="1:19">
       <x:c r="A141" s="0">
-        <x:v>13267</x:v>
+        <x:v>13262</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
         <x:v>100</x:v>
@@ -9576,7 +9582,7 @@
     </x:row>
     <x:row r="142" spans="1:19">
       <x:c r="A142" s="0">
-        <x:v>13268</x:v>
+        <x:v>13263</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
         <x:v>100</x:v>
@@ -9635,7 +9641,7 @@
     </x:row>
     <x:row r="143" spans="1:19">
       <x:c r="A143" s="0">
-        <x:v>13269</x:v>
+        <x:v>13267</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
         <x:v>100</x:v>
@@ -9694,46 +9700,46 @@
     </x:row>
     <x:row r="144" spans="1:19">
       <x:c r="A144" s="0">
-        <x:v>13275</x:v>
+        <x:v>13268</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C144" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D144" s="0">
+        <x:v>12553</x:v>
+      </x:c>
+      <x:c r="E144" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F144" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G144" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H144" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I144" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J144" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K144" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L144" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M144" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N144" s="0" t="s">
         <x:v>181</x:v>
-      </x:c>
-      <x:c r="C144" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D144" s="0">
-        <x:v>12562</x:v>
-      </x:c>
-      <x:c r="E144" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F144" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G144" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H144" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I144" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J144" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K144" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L144" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M144" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N144" s="0" t="s">
-        <x:v>182</x:v>
       </x:c>
       <x:c r="O144" s="0" t="s">
         <x:v>24</x:v>
@@ -9753,16 +9759,16 @@
     </x:row>
     <x:row r="145" spans="1:19">
       <x:c r="A145" s="0">
-        <x:v>13276</x:v>
+        <x:v>13269</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D145" s="0">
-        <x:v>12562</x:v>
+        <x:v>12553</x:v>
       </x:c>
       <x:c r="E145" s="0" t="s">
         <x:v>22</x:v>
@@ -9792,7 +9798,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="N145" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="O145" s="0" t="s">
         <x:v>24</x:v>
@@ -9812,10 +9818,10 @@
     </x:row>
     <x:row r="146" spans="1:19">
       <x:c r="A146" s="0">
-        <x:v>13277</x:v>
+        <x:v>13275</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>36</x:v>
@@ -9871,10 +9877,10 @@
     </x:row>
     <x:row r="147" spans="1:19">
       <x:c r="A147" s="0">
-        <x:v>13280</x:v>
+        <x:v>13276</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>36</x:v>
@@ -9930,10 +9936,10 @@
     </x:row>
     <x:row r="148" spans="1:19">
       <x:c r="A148" s="0">
-        <x:v>13281</x:v>
+        <x:v>13277</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>36</x:v>
@@ -9989,10 +9995,10 @@
     </x:row>
     <x:row r="149" spans="1:19">
       <x:c r="A149" s="0">
-        <x:v>13284</x:v>
+        <x:v>13280</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>36</x:v>
@@ -10048,10 +10054,10 @@
     </x:row>
     <x:row r="150" spans="1:19">
       <x:c r="A150" s="0">
-        <x:v>13285</x:v>
+        <x:v>13281</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>36</x:v>
@@ -10107,10 +10113,10 @@
     </x:row>
     <x:row r="151" spans="1:19">
       <x:c r="A151" s="0">
-        <x:v>13286</x:v>
+        <x:v>13284</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>36</x:v>
@@ -10166,10 +10172,10 @@
     </x:row>
     <x:row r="152" spans="1:19">
       <x:c r="A152" s="0">
-        <x:v>13292</x:v>
+        <x:v>13285</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>36</x:v>
@@ -10205,7 +10211,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="N152" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="O152" s="0" t="s">
         <x:v>24</x:v>
@@ -10225,10 +10231,10 @@
     </x:row>
     <x:row r="153" spans="1:19">
       <x:c r="A153" s="0">
-        <x:v>13293</x:v>
+        <x:v>13286</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>36</x:v>
@@ -10264,7 +10270,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="N153" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="O153" s="0" t="s">
         <x:v>24</x:v>
@@ -10284,10 +10290,10 @@
     </x:row>
     <x:row r="154" spans="1:19">
       <x:c r="A154" s="0">
-        <x:v>13294</x:v>
+        <x:v>13292</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>36</x:v>
@@ -10343,10 +10349,10 @@
     </x:row>
     <x:row r="155" spans="1:19">
       <x:c r="A155" s="0">
-        <x:v>13295</x:v>
+        <x:v>13293</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>36</x:v>
@@ -10402,10 +10408,10 @@
     </x:row>
     <x:row r="156" spans="1:19">
       <x:c r="A156" s="0">
-        <x:v>13296</x:v>
+        <x:v>13294</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>36</x:v>
@@ -10461,10 +10467,10 @@
     </x:row>
     <x:row r="157" spans="1:19">
       <x:c r="A157" s="0">
-        <x:v>13299</x:v>
+        <x:v>13295</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>36</x:v>
@@ -10520,10 +10526,10 @@
     </x:row>
     <x:row r="158" spans="1:19">
       <x:c r="A158" s="0">
-        <x:v>13300</x:v>
+        <x:v>13296</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>36</x:v>
@@ -10579,10 +10585,10 @@
     </x:row>
     <x:row r="159" spans="1:19">
       <x:c r="A159" s="0">
-        <x:v>13301</x:v>
+        <x:v>13299</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>36</x:v>
@@ -10638,16 +10644,16 @@
     </x:row>
     <x:row r="160" spans="1:19">
       <x:c r="A160" s="0">
-        <x:v>13303</x:v>
+        <x:v>13300</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D160" s="0">
-        <x:v>12564</x:v>
+        <x:v>12562</x:v>
       </x:c>
       <x:c r="E160" s="0" t="s">
         <x:v>22</x:v>
@@ -10677,7 +10683,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="N160" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="O160" s="0" t="s">
         <x:v>24</x:v>
@@ -10697,16 +10703,16 @@
     </x:row>
     <x:row r="161" spans="1:19">
       <x:c r="A161" s="0">
-        <x:v>13305</x:v>
+        <x:v>13301</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D161" s="0">
-        <x:v>12564</x:v>
+        <x:v>12562</x:v>
       </x:c>
       <x:c r="E161" s="0" t="s">
         <x:v>22</x:v>
@@ -10736,7 +10742,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="N161" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O161" s="0" t="s">
         <x:v>24</x:v>
@@ -10756,46 +10762,46 @@
     </x:row>
     <x:row r="162" spans="1:19">
       <x:c r="A162" s="0">
-        <x:v>13306</x:v>
+        <x:v>13303</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D162" s="0">
+        <x:v>12564</x:v>
+      </x:c>
+      <x:c r="E162" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F162" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G162" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H162" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I162" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J162" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K162" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L162" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M162" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N162" s="0" t="s">
         <x:v>202</x:v>
-      </x:c>
-      <x:c r="D162" s="0">
-        <x:v>12555</x:v>
-      </x:c>
-      <x:c r="E162" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F162" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G162" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H162" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I162" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J162" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K162" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L162" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M162" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N162" s="0" t="s">
-        <x:v>203</x:v>
       </x:c>
       <x:c r="O162" s="0" t="s">
         <x:v>24</x:v>
@@ -10815,16 +10821,16 @@
     </x:row>
     <x:row r="163" spans="1:19">
       <x:c r="A163" s="0">
-        <x:v>13311</x:v>
+        <x:v>13305</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D163" s="0">
-        <x:v>0</x:v>
+        <x:v>12564</x:v>
       </x:c>
       <x:c r="E163" s="0" t="s">
         <x:v>22</x:v>
@@ -10854,7 +10860,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="N163" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="O163" s="0" t="s">
         <x:v>24</x:v>
@@ -10874,13 +10880,13 @@
     </x:row>
     <x:row r="164" spans="1:19">
       <x:c r="A164" s="0">
-        <x:v>13312</x:v>
+        <x:v>13306</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D164" s="0">
         <x:v>12555</x:v>
@@ -10933,16 +10939,16 @@
     </x:row>
     <x:row r="165" spans="1:19">
       <x:c r="A165" s="0">
-        <x:v>13313</x:v>
+        <x:v>13311</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D165" s="0">
-        <x:v>12555</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E165" s="0" t="s">
         <x:v>22</x:v>
@@ -10992,16 +10998,16 @@
     </x:row>
     <x:row r="166" spans="1:19">
       <x:c r="A166" s="0">
-        <x:v>13316</x:v>
+        <x:v>13312</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D166" s="0">
-        <x:v>12553</x:v>
+        <x:v>12555</x:v>
       </x:c>
       <x:c r="E166" s="0" t="s">
         <x:v>22</x:v>
@@ -11051,16 +11057,16 @@
     </x:row>
     <x:row r="167" spans="1:19">
       <x:c r="A167" s="0">
-        <x:v>13317</x:v>
+        <x:v>13313</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D167" s="0">
-        <x:v>12553</x:v>
+        <x:v>12555</x:v>
       </x:c>
       <x:c r="E167" s="0" t="s">
         <x:v>22</x:v>
@@ -11110,7 +11116,7 @@
     </x:row>
     <x:row r="168" spans="1:19">
       <x:c r="A168" s="0">
-        <x:v>13318</x:v>
+        <x:v>13316</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
         <x:v>100</x:v>
@@ -11169,7 +11175,7 @@
     </x:row>
     <x:row r="169" spans="1:19">
       <x:c r="A169" s="0">
-        <x:v>13320</x:v>
+        <x:v>13317</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
         <x:v>100</x:v>
@@ -11228,7 +11234,7 @@
     </x:row>
     <x:row r="170" spans="1:19">
       <x:c r="A170" s="0">
-        <x:v>13321</x:v>
+        <x:v>13318</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
         <x:v>100</x:v>
@@ -11287,7 +11293,7 @@
     </x:row>
     <x:row r="171" spans="1:19">
       <x:c r="A171" s="0">
-        <x:v>13322</x:v>
+        <x:v>13320</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
         <x:v>100</x:v>
@@ -11346,7 +11352,7 @@
     </x:row>
     <x:row r="172" spans="1:19">
       <x:c r="A172" s="0">
-        <x:v>13323</x:v>
+        <x:v>13321</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
         <x:v>100</x:v>
@@ -11405,7 +11411,7 @@
     </x:row>
     <x:row r="173" spans="1:19">
       <x:c r="A173" s="0">
-        <x:v>13324</x:v>
+        <x:v>13322</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
         <x:v>100</x:v>
@@ -11464,7 +11470,7 @@
     </x:row>
     <x:row r="174" spans="1:19">
       <x:c r="A174" s="0">
-        <x:v>13325</x:v>
+        <x:v>13323</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
         <x:v>100</x:v>
@@ -11523,7 +11529,7 @@
     </x:row>
     <x:row r="175" spans="1:19">
       <x:c r="A175" s="0">
-        <x:v>13326</x:v>
+        <x:v>13324</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
         <x:v>100</x:v>
@@ -11582,7 +11588,7 @@
     </x:row>
     <x:row r="176" spans="1:19">
       <x:c r="A176" s="0">
-        <x:v>13327</x:v>
+        <x:v>13325</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
         <x:v>100</x:v>
@@ -11641,7 +11647,7 @@
     </x:row>
     <x:row r="177" spans="1:19">
       <x:c r="A177" s="0">
-        <x:v>13328</x:v>
+        <x:v>13326</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
         <x:v>100</x:v>
@@ -11700,7 +11706,7 @@
     </x:row>
     <x:row r="178" spans="1:19">
       <x:c r="A178" s="0">
-        <x:v>13329</x:v>
+        <x:v>13327</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
         <x:v>100</x:v>
@@ -11759,7 +11765,7 @@
     </x:row>
     <x:row r="179" spans="1:19">
       <x:c r="A179" s="0">
-        <x:v>13330</x:v>
+        <x:v>13328</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
         <x:v>100</x:v>
@@ -11818,46 +11824,46 @@
     </x:row>
     <x:row r="180" spans="1:19">
       <x:c r="A180" s="0">
-        <x:v>13331</x:v>
+        <x:v>13329</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D180" s="0">
+        <x:v>12553</x:v>
+      </x:c>
+      <x:c r="E180" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F180" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G180" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H180" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I180" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J180" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K180" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L180" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M180" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N180" s="0" t="s">
         <x:v>221</x:v>
-      </x:c>
-      <x:c r="D180" s="0">
-        <x:v>12570</x:v>
-      </x:c>
-      <x:c r="E180" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F180" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G180" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H180" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I180" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J180" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K180" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L180" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M180" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N180" s="0" t="s">
-        <x:v>222</x:v>
       </x:c>
       <x:c r="O180" s="0" t="s">
         <x:v>24</x:v>
@@ -11877,16 +11883,16 @@
     </x:row>
     <x:row r="181" spans="1:19">
       <x:c r="A181" s="0">
-        <x:v>13333</x:v>
+        <x:v>13330</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D181" s="0">
-        <x:v>12570</x:v>
+        <x:v>12553</x:v>
       </x:c>
       <x:c r="E181" s="0" t="s">
         <x:v>22</x:v>
@@ -11916,7 +11922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="N181" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="O181" s="0" t="s">
         <x:v>24</x:v>
@@ -11936,16 +11942,16 @@
     </x:row>
     <x:row r="182" spans="1:19">
       <x:c r="A182" s="0">
-        <x:v>13337</x:v>
+        <x:v>13331</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D182" s="0">
-        <x:v>12571</x:v>
+        <x:v>12570</x:v>
       </x:c>
       <x:c r="E182" s="0" t="s">
         <x:v>22</x:v>
@@ -11995,16 +12001,16 @@
     </x:row>
     <x:row r="183" spans="1:19">
       <x:c r="A183" s="0">
-        <x:v>13338</x:v>
+        <x:v>13333</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D183" s="0">
-        <x:v>12571</x:v>
+        <x:v>12570</x:v>
       </x:c>
       <x:c r="E183" s="0" t="s">
         <x:v>22</x:v>
@@ -12054,7 +12060,7 @@
     </x:row>
     <x:row r="184" spans="1:19">
       <x:c r="A184" s="0">
-        <x:v>13340</x:v>
+        <x:v>13337</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
         <x:v>65</x:v>
@@ -12113,7 +12119,7 @@
     </x:row>
     <x:row r="185" spans="1:19">
       <x:c r="A185" s="0">
-        <x:v>13341</x:v>
+        <x:v>13338</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
         <x:v>65</x:v>
@@ -12172,7 +12178,7 @@
     </x:row>
     <x:row r="186" spans="1:19">
       <x:c r="A186" s="0">
-        <x:v>13342</x:v>
+        <x:v>13340</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
         <x:v>65</x:v>
@@ -12231,16 +12237,16 @@
     </x:row>
     <x:row r="187" spans="1:19">
       <x:c r="A187" s="0">
-        <x:v>13349</x:v>
+        <x:v>13341</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D187" s="0">
-        <x:v>12553</x:v>
+        <x:v>12571</x:v>
       </x:c>
       <x:c r="E187" s="0" t="s">
         <x:v>22</x:v>
@@ -12290,16 +12296,16 @@
     </x:row>
     <x:row r="188" spans="1:19">
       <x:c r="A188" s="0">
-        <x:v>13350</x:v>
+        <x:v>13342</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D188" s="0">
-        <x:v>12553</x:v>
+        <x:v>12571</x:v>
       </x:c>
       <x:c r="E188" s="0" t="s">
         <x:v>22</x:v>
@@ -12349,7 +12355,7 @@
     </x:row>
     <x:row r="189" spans="1:19">
       <x:c r="A189" s="0">
-        <x:v>13351</x:v>
+        <x:v>13349</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
         <x:v>100</x:v>
@@ -12408,7 +12414,7 @@
     </x:row>
     <x:row r="190" spans="1:19">
       <x:c r="A190" s="0">
-        <x:v>13352</x:v>
+        <x:v>13350</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
         <x:v>100</x:v>
@@ -12467,7 +12473,7 @@
     </x:row>
     <x:row r="191" spans="1:19">
       <x:c r="A191" s="0">
-        <x:v>13355</x:v>
+        <x:v>13351</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
         <x:v>100</x:v>
@@ -12526,7 +12532,7 @@
     </x:row>
     <x:row r="192" spans="1:19">
       <x:c r="A192" s="0">
-        <x:v>13356</x:v>
+        <x:v>13352</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
         <x:v>100</x:v>
@@ -12585,7 +12591,7 @@
     </x:row>
     <x:row r="193" spans="1:19">
       <x:c r="A193" s="0">
-        <x:v>13357</x:v>
+        <x:v>13355</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
         <x:v>100</x:v>
@@ -12644,7 +12650,7 @@
     </x:row>
     <x:row r="194" spans="1:19">
       <x:c r="A194" s="0">
-        <x:v>13360</x:v>
+        <x:v>13356</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
         <x:v>100</x:v>
@@ -12703,7 +12709,7 @@
     </x:row>
     <x:row r="195" spans="1:19">
       <x:c r="A195" s="0">
-        <x:v>13361</x:v>
+        <x:v>13357</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
         <x:v>100</x:v>
@@ -12762,7 +12768,7 @@
     </x:row>
     <x:row r="196" spans="1:19">
       <x:c r="A196" s="0">
-        <x:v>13362</x:v>
+        <x:v>13360</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
         <x:v>100</x:v>
@@ -12821,7 +12827,7 @@
     </x:row>
     <x:row r="197" spans="1:19">
       <x:c r="A197" s="0">
-        <x:v>13364</x:v>
+        <x:v>13361</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
         <x:v>100</x:v>
@@ -12880,7 +12886,7 @@
     </x:row>
     <x:row r="198" spans="1:19">
       <x:c r="A198" s="0">
-        <x:v>13365</x:v>
+        <x:v>13362</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
         <x:v>100</x:v>
@@ -12939,46 +12945,46 @@
     </x:row>
     <x:row r="199" spans="1:19">
       <x:c r="A199" s="0">
-        <x:v>13378</x:v>
+        <x:v>13364</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D199" s="0">
+        <x:v>12553</x:v>
+      </x:c>
+      <x:c r="E199" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F199" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G199" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H199" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I199" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J199" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K199" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L199" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M199" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N199" s="0" t="s">
         <x:v>241</x:v>
-      </x:c>
-      <x:c r="D199" s="0">
-        <x:v>12577</x:v>
-      </x:c>
-      <x:c r="E199" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F199" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G199" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H199" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I199" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J199" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K199" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L199" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M199" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N199" s="0" t="s">
-        <x:v>242</x:v>
       </x:c>
       <x:c r="O199" s="0" t="s">
         <x:v>24</x:v>
@@ -12998,16 +13004,16 @@
     </x:row>
     <x:row r="200" spans="1:19">
       <x:c r="A200" s="0">
-        <x:v>13379</x:v>
+        <x:v>13365</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D200" s="0">
-        <x:v>12577</x:v>
+        <x:v>12553</x:v>
       </x:c>
       <x:c r="E200" s="0" t="s">
         <x:v>22</x:v>
@@ -13037,7 +13043,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="N200" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="O200" s="0" t="s">
         <x:v>24</x:v>
@@ -13057,13 +13063,13 @@
     </x:row>
     <x:row r="201" spans="1:19">
       <x:c r="A201" s="0">
-        <x:v>13383</x:v>
+        <x:v>13378</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D201" s="0">
         <x:v>12577</x:v>
@@ -13116,13 +13122,13 @@
     </x:row>
     <x:row r="202" spans="1:19">
       <x:c r="A202" s="0">
-        <x:v>13384</x:v>
+        <x:v>13379</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D202" s="0">
         <x:v>12577</x:v>
@@ -13175,13 +13181,13 @@
     </x:row>
     <x:row r="203" spans="1:19">
       <x:c r="A203" s="0">
-        <x:v>13386</x:v>
+        <x:v>13383</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D203" s="0">
         <x:v>12577</x:v>
@@ -13234,13 +13240,13 @@
     </x:row>
     <x:row r="204" spans="1:19">
       <x:c r="A204" s="0">
-        <x:v>13387</x:v>
+        <x:v>13384</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D204" s="0">
         <x:v>12577</x:v>
@@ -13293,13 +13299,13 @@
     </x:row>
     <x:row r="205" spans="1:19">
       <x:c r="A205" s="0">
-        <x:v>13388</x:v>
+        <x:v>13386</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D205" s="0">
         <x:v>12577</x:v>
@@ -13352,13 +13358,13 @@
     </x:row>
     <x:row r="206" spans="1:19">
       <x:c r="A206" s="0">
-        <x:v>13389</x:v>
+        <x:v>13387</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D206" s="0">
         <x:v>12577</x:v>
@@ -13411,13 +13417,13 @@
     </x:row>
     <x:row r="207" spans="1:19">
       <x:c r="A207" s="0">
-        <x:v>13390</x:v>
+        <x:v>13388</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D207" s="0">
         <x:v>12577</x:v>
@@ -13470,13 +13476,13 @@
     </x:row>
     <x:row r="208" spans="1:19">
       <x:c r="A208" s="0">
-        <x:v>13397</x:v>
+        <x:v>13389</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D208" s="0">
         <x:v>12577</x:v>
@@ -13529,13 +13535,13 @@
     </x:row>
     <x:row r="209" spans="1:19">
       <x:c r="A209" s="0">
-        <x:v>13398</x:v>
+        <x:v>13390</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D209" s="0">
         <x:v>12577</x:v>
@@ -13588,13 +13594,13 @@
     </x:row>
     <x:row r="210" spans="1:19">
       <x:c r="A210" s="0">
-        <x:v>13399</x:v>
+        <x:v>13397</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D210" s="0">
         <x:v>12577</x:v>
@@ -13647,13 +13653,13 @@
     </x:row>
     <x:row r="211" spans="1:19">
       <x:c r="A211" s="0">
-        <x:v>13400</x:v>
+        <x:v>13398</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D211" s="0">
         <x:v>12577</x:v>
@@ -13706,13 +13712,13 @@
     </x:row>
     <x:row r="212" spans="1:19">
       <x:c r="A212" s="0">
-        <x:v>13401</x:v>
+        <x:v>13399</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D212" s="0">
         <x:v>12577</x:v>
@@ -13765,13 +13771,13 @@
     </x:row>
     <x:row r="213" spans="1:19">
       <x:c r="A213" s="0">
-        <x:v>13402</x:v>
+        <x:v>13400</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D213" s="0">
         <x:v>12577</x:v>
@@ -13824,13 +13830,13 @@
     </x:row>
     <x:row r="214" spans="1:19">
       <x:c r="A214" s="0">
-        <x:v>13403</x:v>
+        <x:v>13401</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D214" s="0">
         <x:v>12577</x:v>
@@ -13883,13 +13889,13 @@
     </x:row>
     <x:row r="215" spans="1:19">
       <x:c r="A215" s="0">
-        <x:v>13404</x:v>
+        <x:v>13402</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D215" s="0">
         <x:v>12577</x:v>
@@ -13942,13 +13948,13 @@
     </x:row>
     <x:row r="216" spans="1:19">
       <x:c r="A216" s="0">
-        <x:v>13409</x:v>
+        <x:v>13403</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D216" s="0">
         <x:v>12577</x:v>
@@ -14001,13 +14007,13 @@
     </x:row>
     <x:row r="217" spans="1:19">
       <x:c r="A217" s="0">
-        <x:v>13410</x:v>
+        <x:v>13404</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D217" s="0">
         <x:v>12577</x:v>
@@ -14060,13 +14066,13 @@
     </x:row>
     <x:row r="218" spans="1:19">
       <x:c r="A218" s="0">
-        <x:v>13417</x:v>
+        <x:v>13409</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D218" s="0">
         <x:v>12577</x:v>
@@ -14119,16 +14125,16 @@
     </x:row>
     <x:row r="219" spans="1:19">
       <x:c r="A219" s="0">
-        <x:v>13418</x:v>
+        <x:v>13410</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D219" s="0">
-        <x:v>12580</x:v>
+        <x:v>12577</x:v>
       </x:c>
       <x:c r="E219" s="0" t="s">
         <x:v>22</x:v>
@@ -14178,16 +14184,16 @@
     </x:row>
     <x:row r="220" spans="1:19">
       <x:c r="A220" s="0">
-        <x:v>13419</x:v>
+        <x:v>13417</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D220" s="0">
-        <x:v>12580</x:v>
+        <x:v>12577</x:v>
       </x:c>
       <x:c r="E220" s="0" t="s">
         <x:v>22</x:v>
@@ -14237,7 +14243,7 @@
     </x:row>
     <x:row r="221" spans="1:19">
       <x:c r="A221" s="0">
-        <x:v>13420</x:v>
+        <x:v>13418</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
         <x:v>94</x:v>
@@ -14296,7 +14302,7 @@
     </x:row>
     <x:row r="222" spans="1:19">
       <x:c r="A222" s="0">
-        <x:v>13421</x:v>
+        <x:v>13419</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
         <x:v>94</x:v>
@@ -14305,7 +14311,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="D222" s="0">
-        <x:v>12577</x:v>
+        <x:v>12580</x:v>
       </x:c>
       <x:c r="E222" s="0" t="s">
         <x:v>22</x:v>
@@ -14355,7 +14361,7 @@
     </x:row>
     <x:row r="223" spans="1:19">
       <x:c r="A223" s="0">
-        <x:v>13422</x:v>
+        <x:v>13420</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
         <x:v>94</x:v>
@@ -14364,7 +14370,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="D223" s="0">
-        <x:v>12577</x:v>
+        <x:v>12580</x:v>
       </x:c>
       <x:c r="E223" s="0" t="s">
         <x:v>22</x:v>
@@ -14414,7 +14420,7 @@
     </x:row>
     <x:row r="224" spans="1:19">
       <x:c r="A224" s="0">
-        <x:v>13423</x:v>
+        <x:v>13421</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
         <x:v>94</x:v>
@@ -14423,7 +14429,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="D224" s="0">
-        <x:v>12580</x:v>
+        <x:v>12577</x:v>
       </x:c>
       <x:c r="E224" s="0" t="s">
         <x:v>22</x:v>
@@ -14473,7 +14479,7 @@
     </x:row>
     <x:row r="225" spans="1:19">
       <x:c r="A225" s="0">
-        <x:v>13424</x:v>
+        <x:v>13422</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
         <x:v>94</x:v>
@@ -14532,7 +14538,7 @@
     </x:row>
     <x:row r="226" spans="1:19">
       <x:c r="A226" s="0">
-        <x:v>13425</x:v>
+        <x:v>13423</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
         <x:v>94</x:v>
@@ -14541,7 +14547,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="D226" s="0">
-        <x:v>12577</x:v>
+        <x:v>12580</x:v>
       </x:c>
       <x:c r="E226" s="0" t="s">
         <x:v>22</x:v>
@@ -14591,16 +14597,16 @@
     </x:row>
     <x:row r="227" spans="1:19">
       <x:c r="A227" s="0">
-        <x:v>13468</x:v>
+        <x:v>13424</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D227" s="0">
-        <x:v>12598</x:v>
+        <x:v>12577</x:v>
       </x:c>
       <x:c r="E227" s="0" t="s">
         <x:v>22</x:v>
@@ -14650,16 +14656,16 @@
     </x:row>
     <x:row r="228" spans="1:19">
       <x:c r="A228" s="0">
-        <x:v>13469</x:v>
+        <x:v>13425</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D228" s="0">
-        <x:v>12598</x:v>
+        <x:v>12577</x:v>
       </x:c>
       <x:c r="E228" s="0" t="s">
         <x:v>22</x:v>
@@ -14709,7 +14715,7 @@
     </x:row>
     <x:row r="229" spans="1:19">
       <x:c r="A229" s="0">
-        <x:v>13470</x:v>
+        <x:v>13468</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
         <x:v>35</x:v>
@@ -14768,7 +14774,7 @@
     </x:row>
     <x:row r="230" spans="1:19">
       <x:c r="A230" s="0">
-        <x:v>13473</x:v>
+        <x:v>13469</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
         <x:v>35</x:v>
@@ -14827,7 +14833,7 @@
     </x:row>
     <x:row r="231" spans="1:19">
       <x:c r="A231" s="0">
-        <x:v>13474</x:v>
+        <x:v>13470</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
         <x:v>35</x:v>
@@ -14886,7 +14892,7 @@
     </x:row>
     <x:row r="232" spans="1:19">
       <x:c r="A232" s="0">
-        <x:v>13475</x:v>
+        <x:v>13473</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
         <x:v>35</x:v>
@@ -14945,7 +14951,7 @@
     </x:row>
     <x:row r="233" spans="1:19">
       <x:c r="A233" s="0">
-        <x:v>13478</x:v>
+        <x:v>13474</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
         <x:v>35</x:v>
@@ -15004,7 +15010,7 @@
     </x:row>
     <x:row r="234" spans="1:19">
       <x:c r="A234" s="0">
-        <x:v>13479</x:v>
+        <x:v>13475</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
         <x:v>35</x:v>
@@ -15063,7 +15069,7 @@
     </x:row>
     <x:row r="235" spans="1:19">
       <x:c r="A235" s="0">
-        <x:v>13480</x:v>
+        <x:v>13478</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
         <x:v>35</x:v>
@@ -15122,7 +15128,7 @@
     </x:row>
     <x:row r="236" spans="1:19">
       <x:c r="A236" s="0">
-        <x:v>13481</x:v>
+        <x:v>13479</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
         <x:v>35</x:v>
@@ -15181,7 +15187,7 @@
     </x:row>
     <x:row r="237" spans="1:19">
       <x:c r="A237" s="0">
-        <x:v>13486</x:v>
+        <x:v>13480</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
         <x:v>35</x:v>
@@ -15240,7 +15246,7 @@
     </x:row>
     <x:row r="238" spans="1:19">
       <x:c r="A238" s="0">
-        <x:v>13489</x:v>
+        <x:v>13481</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
         <x:v>35</x:v>
@@ -15299,7 +15305,7 @@
     </x:row>
     <x:row r="239" spans="1:19">
       <x:c r="A239" s="0">
-        <x:v>13490</x:v>
+        <x:v>13486</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
         <x:v>35</x:v>
@@ -15358,7 +15364,7 @@
     </x:row>
     <x:row r="240" spans="1:19">
       <x:c r="A240" s="0">
-        <x:v>13494</x:v>
+        <x:v>13489</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
         <x:v>35</x:v>
@@ -15417,7 +15423,7 @@
     </x:row>
     <x:row r="241" spans="1:19">
       <x:c r="A241" s="0">
-        <x:v>13495</x:v>
+        <x:v>13490</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
         <x:v>35</x:v>
@@ -15476,7 +15482,7 @@
     </x:row>
     <x:row r="242" spans="1:19">
       <x:c r="A242" s="0">
-        <x:v>13500</x:v>
+        <x:v>13494</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
         <x:v>35</x:v>
@@ -15535,7 +15541,7 @@
     </x:row>
     <x:row r="243" spans="1:19">
       <x:c r="A243" s="0">
-        <x:v>13501</x:v>
+        <x:v>13495</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
         <x:v>35</x:v>
@@ -15594,16 +15600,16 @@
     </x:row>
     <x:row r="244" spans="1:19">
       <x:c r="A244" s="0">
-        <x:v>13532</x:v>
+        <x:v>13500</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D244" s="0">
-        <x:v>12599</x:v>
+        <x:v>12598</x:v>
       </x:c>
       <x:c r="E244" s="0" t="s">
         <x:v>22</x:v>
@@ -15653,16 +15659,16 @@
     </x:row>
     <x:row r="245" spans="1:19">
       <x:c r="A245" s="0">
-        <x:v>13533</x:v>
+        <x:v>13501</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D245" s="0">
-        <x:v>12599</x:v>
+        <x:v>12598</x:v>
       </x:c>
       <x:c r="E245" s="0" t="s">
         <x:v>22</x:v>
@@ -15712,16 +15718,16 @@
     </x:row>
     <x:row r="246" spans="1:19">
       <x:c r="A246" s="0">
-        <x:v>13539</x:v>
+        <x:v>13532</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D246" s="0">
-        <x:v>12596</x:v>
+        <x:v>12599</x:v>
       </x:c>
       <x:c r="E246" s="0" t="s">
         <x:v>22</x:v>
@@ -15771,16 +15777,16 @@
     </x:row>
     <x:row r="247" spans="1:19">
       <x:c r="A247" s="0">
-        <x:v>13540</x:v>
+        <x:v>13533</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D247" s="0">
-        <x:v>12596</x:v>
+        <x:v>12599</x:v>
       </x:c>
       <x:c r="E247" s="0" t="s">
         <x:v>22</x:v>
@@ -15830,13 +15836,13 @@
     </x:row>
     <x:row r="248" spans="1:19">
       <x:c r="A248" s="0">
-        <x:v>13543</x:v>
+        <x:v>13539</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D248" s="0">
         <x:v>12596</x:v>
@@ -15889,13 +15895,13 @@
     </x:row>
     <x:row r="249" spans="1:19">
       <x:c r="A249" s="0">
-        <x:v>13544</x:v>
+        <x:v>13540</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D249" s="0">
         <x:v>12596</x:v>
@@ -15948,16 +15954,16 @@
     </x:row>
     <x:row r="250" spans="1:19">
       <x:c r="A250" s="0">
-        <x:v>13545</x:v>
+        <x:v>13543</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D250" s="0">
-        <x:v>0</x:v>
+        <x:v>12596</x:v>
       </x:c>
       <x:c r="E250" s="0" t="s">
         <x:v>22</x:v>
@@ -16007,46 +16013,46 @@
     </x:row>
     <x:row r="251" spans="1:19">
       <x:c r="A251" s="0">
-        <x:v>13551</x:v>
+        <x:v>13544</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C251" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="D251" s="0">
+        <x:v>12596</x:v>
+      </x:c>
+      <x:c r="E251" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F251" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G251" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H251" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I251" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J251" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K251" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L251" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M251" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N251" s="0" t="s">
         <x:v>294</x:v>
-      </x:c>
-      <x:c r="C251" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D251" s="0">
-        <x:v>12603</x:v>
-      </x:c>
-      <x:c r="E251" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F251" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G251" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H251" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I251" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J251" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K251" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L251" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M251" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N251" s="0" t="s">
-        <x:v>295</x:v>
       </x:c>
       <x:c r="O251" s="0" t="s">
         <x:v>24</x:v>
@@ -16066,16 +16072,16 @@
     </x:row>
     <x:row r="252" spans="1:19">
       <x:c r="A252" s="0">
-        <x:v>13552</x:v>
+        <x:v>13545</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D252" s="0">
-        <x:v>12603</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E252" s="0" t="s">
         <x:v>22</x:v>
@@ -16105,7 +16111,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="N252" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="O252" s="0" t="s">
         <x:v>24</x:v>
@@ -16125,13 +16131,13 @@
     </x:row>
     <x:row r="253" spans="1:19">
       <x:c r="A253" s="0">
-        <x:v>13553</x:v>
+        <x:v>13551</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D253" s="0">
         <x:v>12603</x:v>
@@ -16184,10 +16190,10 @@
     </x:row>
     <x:row r="254" spans="1:19">
       <x:c r="A254" s="0">
-        <x:v>13554</x:v>
+        <x:v>13552</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>36</x:v>
@@ -16243,13 +16249,13 @@
     </x:row>
     <x:row r="255" spans="1:19">
       <x:c r="A255" s="0">
-        <x:v>13555</x:v>
+        <x:v>13553</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D255" s="0">
         <x:v>12603</x:v>
@@ -16302,10 +16308,10 @@
     </x:row>
     <x:row r="256" spans="1:19">
       <x:c r="A256" s="0">
-        <x:v>13561</x:v>
+        <x:v>13554</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>36</x:v>
@@ -16361,13 +16367,13 @@
     </x:row>
     <x:row r="257" spans="1:19">
       <x:c r="A257" s="0">
-        <x:v>13562</x:v>
+        <x:v>13555</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D257" s="0">
         <x:v>12603</x:v>
@@ -16420,10 +16426,10 @@
     </x:row>
     <x:row r="258" spans="1:19">
       <x:c r="A258" s="0">
-        <x:v>13563</x:v>
+        <x:v>13561</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>36</x:v>
@@ -16474,6 +16480,124 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S258" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="259" spans="1:19">
+      <x:c r="A259" s="0">
+        <x:v>13562</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="C259" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D259" s="0">
+        <x:v>12603</x:v>
+      </x:c>
+      <x:c r="E259" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F259" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G259" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H259" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I259" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J259" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K259" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L259" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M259" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N259" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="O259" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P259" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q259" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R259" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S259" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="260" spans="1:19">
+      <x:c r="A260" s="0">
+        <x:v>13563</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="C260" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D260" s="0">
+        <x:v>12603</x:v>
+      </x:c>
+      <x:c r="E260" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F260" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G260" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H260" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I260" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J260" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K260" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L260" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M260" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N260" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="O260" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P260" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q260" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R260" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S260" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>

--- a/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Юлия Россинская.xlsx
+++ b/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Юлия Россинская.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Сотрудник Юлия Россинская: 13651,68 руб.</x:t>
+    <x:t>Сотрудник Юлия Россинская. Расчитанная сумма с 5 мая 2024 г. по 2 июня 2024 г. составила: 13651,68 руб.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Сер.№</x:t>
@@ -1561,7 +1561,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="19" width="20.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="5" width="20.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="13" width="9.140625" style="0" hidden="1" customWidth="1" collapsed="1"/>
+    <x:col min="14" max="15" width="20.710625" style="0" customWidth="1"/>
+    <x:col min="16" max="19" width="9.140625" style="0" hidden="1" customWidth="1" collapsed="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">

--- a/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Юлия Россинская.xlsx
+++ b/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Юлия Россинская.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Сотрудник Юлия Россинская. Расчитанная сумма с 5 мая 2024 г. по 6 июня 2024 г. составила: 16410,24 руб.</x:t>
+    <x:t>Сотрудник Юлия Россинская. Расчитанная сумма с 5 мая 2024 г. по 5 июня 2024 г. составила: 16198,56 руб.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Сер.№</x:t>
@@ -1417,15 +1417,6 @@
     <x:t>05.06.2024 11:18:47</x:t>
   </x:si>
   <x:si>
-    <x:t>05.06.2024 11:28:18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05.06.2024 11:33:38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05.06.2024 11:30:33</x:t>
-  </x:si>
-  <x:si>
     <x:t>05.06.2024 11:14:10</x:t>
   </x:si>
   <x:si>
@@ -1433,18 +1424,6 @@
   </x:si>
   <x:si>
     <x:t>05.06.2024 11:23:52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05.06.2024 11:25:50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05.06.2024 12:36:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05.06.2024 12:42:35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05.06.2024 12:59:29</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1822,7 +1801,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:S427"/>
+  <x:dimension ref="A1:S420"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -11445,7 +11424,7 @@
     </x:row>
     <x:row r="418" spans="1:19">
       <x:c r="A418" s="0">
-        <x:v>13977</x:v>
+        <x:v>13980</x:v>
       </x:c>
       <x:c r="B418" s="0" t="s">
         <x:v>299</x:v>
@@ -11468,7 +11447,7 @@
     </x:row>
     <x:row r="419" spans="1:19">
       <x:c r="A419" s="0">
-        <x:v>13978</x:v>
+        <x:v>13981</x:v>
       </x:c>
       <x:c r="B419" s="0" t="s">
         <x:v>299</x:v>
@@ -11491,7 +11470,7 @@
     </x:row>
     <x:row r="420" spans="1:19">
       <x:c r="A420" s="0">
-        <x:v>13979</x:v>
+        <x:v>13982</x:v>
       </x:c>
       <x:c r="B420" s="0" t="s">
         <x:v>299</x:v>
@@ -11509,167 +11488,6 @@
         <x:v>469</x:v>
       </x:c>
       <x:c r="O420" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="421" spans="1:19">
-      <x:c r="A421" s="0">
-        <x:v>13980</x:v>
-      </x:c>
-      <x:c r="B421" s="0" t="s">
-        <x:v>299</x:v>
-      </x:c>
-      <x:c r="C421" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D421" s="0">
-        <x:v>12640</x:v>
-      </x:c>
-      <x:c r="E421" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N421" s="0" t="s">
-        <x:v>470</x:v>
-      </x:c>
-      <x:c r="O421" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="422" spans="1:19">
-      <x:c r="A422" s="0">
-        <x:v>13981</x:v>
-      </x:c>
-      <x:c r="B422" s="0" t="s">
-        <x:v>299</x:v>
-      </x:c>
-      <x:c r="C422" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D422" s="0">
-        <x:v>12640</x:v>
-      </x:c>
-      <x:c r="E422" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N422" s="0" t="s">
-        <x:v>471</x:v>
-      </x:c>
-      <x:c r="O422" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="423" spans="1:19">
-      <x:c r="A423" s="0">
-        <x:v>13982</x:v>
-      </x:c>
-      <x:c r="B423" s="0" t="s">
-        <x:v>299</x:v>
-      </x:c>
-      <x:c r="C423" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D423" s="0">
-        <x:v>12640</x:v>
-      </x:c>
-      <x:c r="E423" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N423" s="0" t="s">
-        <x:v>472</x:v>
-      </x:c>
-      <x:c r="O423" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="424" spans="1:19">
-      <x:c r="A424" s="0">
-        <x:v>13983</x:v>
-      </x:c>
-      <x:c r="B424" s="0" t="s">
-        <x:v>299</x:v>
-      </x:c>
-      <x:c r="C424" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D424" s="0">
-        <x:v>12640</x:v>
-      </x:c>
-      <x:c r="E424" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N424" s="0" t="s">
-        <x:v>473</x:v>
-      </x:c>
-      <x:c r="O424" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="425" spans="1:19">
-      <x:c r="A425" s="0">
-        <x:v>13994</x:v>
-      </x:c>
-      <x:c r="B425" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="C425" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D425" s="0">
-        <x:v>12642</x:v>
-      </x:c>
-      <x:c r="E425" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N425" s="0" t="s">
-        <x:v>474</x:v>
-      </x:c>
-      <x:c r="O425" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="426" spans="1:19">
-      <x:c r="A426" s="0">
-        <x:v>13995</x:v>
-      </x:c>
-      <x:c r="B426" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="C426" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D426" s="0">
-        <x:v>12642</x:v>
-      </x:c>
-      <x:c r="E426" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N426" s="0" t="s">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="O426" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="427" spans="1:19">
-      <x:c r="A427" s="0">
-        <x:v>13996</x:v>
-      </x:c>
-      <x:c r="B427" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="C427" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D427" s="0">
-        <x:v>12642</x:v>
-      </x:c>
-      <x:c r="E427" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N427" s="0" t="s">
-        <x:v>476</x:v>
-      </x:c>
-      <x:c r="O427" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>
